--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 41136-2023</t>
+          <t>A 31667-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45173</v>
+        <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>16.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Goliatmusseron
+Lakritsmusseron
+Orange taggsvamp
+Skrovlig taggsvamp
+Tallriska
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 41136-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -630,132 +720,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 31667-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Goliatmusseron
-Lakritsmusseron
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallriska
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 54858-2022</t>
+          <t>A 1855-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44884</v>
+        <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -801,6 +801,103 @@
         <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Granticka
+Tretåig hackspett
+Ullticka
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -809,139 +906,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 1855-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Granticka
-Tretåig hackspett
-Ullticka
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63800-2023</t>
+          <t>A 59847-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45278.42076388889</v>
+        <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 63800-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45278.42076388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Trana</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 59847-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 71446-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45197</v>
+        <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45502</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.6</v>
+        <v>11.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 71446-2021</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44540.46146990741</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>13.3</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45044</v>
+        <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45261</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45751</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44813</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45173</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45173</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>18.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.1</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45303</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3920,8 +3920,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3963,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45369</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3983,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12.4</v>
+        <v>13.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4020,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44949</v>
+        <v>45805</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4040,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4077,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46009</v>
+        <v>45068</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4097,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>8.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4134,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46009</v>
+        <v>45813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4154,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4191,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4206,7 +4211,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4248,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4268,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4305,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4320,7 +4325,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>12.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45103</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4434,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4471,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4491,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4662,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46009</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4719,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4756,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45910</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4776,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4813,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4833,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4870,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4890,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>17.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4927,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45462</v>
+        <v>45910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4947,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4984,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45462</v>
+        <v>45369</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5004,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5061,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5098,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46009</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5118,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45502</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5175,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5212,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45142</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5232,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>44251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45671</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5403,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45103</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5554,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45044</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5631,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5668,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45197</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5688,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5725,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5745,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5782,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5802,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5839,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45999</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5859,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5896,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45590</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5916,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5953,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45142</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5973,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6010,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45581</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6030,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6067,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6087,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6124,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6144,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6181,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6201,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6238,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45653</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6258,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6295,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6315,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6352,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6372,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6409,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45603</v>
+        <v>45534</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6429,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6466,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6486,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6523,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46007</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6543,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6580,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6600,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6637,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46007</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6657,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6694,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6714,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6751,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6771,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6808,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6828,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6865,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6885,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6922,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6942,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6979,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46008</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6999,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7036,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45581</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7056,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7093,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46008</v>
+        <v>45229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7113,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7150,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008</v>
+        <v>45425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7169,8 +7174,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>13.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7207,14 +7217,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7227,7 +7237,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7264,14 +7274,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44908</v>
+        <v>45671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7284,7 +7294,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7321,14 +7331,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7341,7 +7351,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7378,14 +7388,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46008</v>
+        <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7398,7 +7408,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7435,14 +7445,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45751</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7455,7 +7465,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>10.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7492,14 +7502,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7512,7 +7522,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7549,14 +7559,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45180</v>
+        <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7569,7 +7579,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7606,14 +7616,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7626,7 +7636,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7663,14 +7673,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45740</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7683,7 +7693,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7720,14 +7730,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44957</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7740,7 +7750,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7777,14 +7787,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45968</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7797,7 +7807,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7834,14 +7844,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>46009</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7854,7 +7864,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7891,14 +7901,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7911,7 +7921,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7948,14 +7958,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45581</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7968,7 +7978,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8005,14 +8015,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44482</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8025,7 +8035,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8062,14 +8072,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>46009</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8082,7 +8092,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8119,14 +8129,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45973</v>
+        <v>46009</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8139,7 +8149,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8176,14 +8186,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>46009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8196,7 +8206,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8233,14 +8243,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>46009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8253,7 +8263,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8290,14 +8300,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>46009</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8310,7 +8320,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8347,14 +8357,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45973</v>
+        <v>44957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8367,7 +8377,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8404,14 +8414,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46009</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8424,7 +8434,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>15.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8461,14 +8471,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46009</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8481,7 +8491,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8518,14 +8528,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46009</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8538,7 +8548,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8575,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45415</v>
+        <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8595,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8632,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8652,7 +8662,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>15.3</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8689,14 +8699,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46009</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8709,7 +8719,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8746,14 +8756,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44750</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8765,13 +8775,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8808,14 +8813,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45129</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8828,7 +8833,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8865,14 +8870,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45534</v>
+        <v>44813</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8885,7 +8890,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8922,14 +8927,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45355</v>
+        <v>46009</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8942,7 +8947,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>27.1</v>
+        <v>5.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8979,14 +8984,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8999,7 +9004,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18.6</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9036,14 +9041,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9056,7 +9061,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9093,14 +9098,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9113,7 +9118,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9150,14 +9155,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45103</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9170,7 +9175,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9207,14 +9212,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45078</v>
+        <v>46009</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9227,7 +9232,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9264,14 +9269,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45653</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9284,7 +9289,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>11.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9321,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45217</v>
+        <v>45642.6925</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9341,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9378,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>44750</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9397,8 +9402,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9435,14 +9445,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9455,7 +9465,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>11.1</v>
+        <v>6.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9492,14 +9502,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44379</v>
+        <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9512,7 +9522,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9549,14 +9559,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9569,7 +9579,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9606,14 +9616,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44586</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9626,7 +9636,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9663,14 +9673,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45603</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9683,7 +9693,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9720,14 +9730,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45665</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9740,7 +9750,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9777,14 +9787,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9797,7 +9807,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9834,14 +9844,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9854,7 +9864,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9891,14 +9901,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45229</v>
+        <v>44307</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9911,7 +9921,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9948,14 +9958,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>44482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9968,7 +9978,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>11.7</v>
+        <v>5.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10005,14 +10015,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45642.6925</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10025,7 +10035,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10062,14 +10072,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45191</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10082,7 +10092,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>14.9</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10119,14 +10129,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10139,7 +10149,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10176,14 +10186,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44817</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10196,7 +10206,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10233,14 +10243,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>46007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10253,7 +10263,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10290,14 +10300,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10310,7 +10320,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10347,14 +10357,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>46007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10367,7 +10377,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>10.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10404,14 +10414,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45671</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10424,7 +10434,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10461,14 +10471,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44907</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10481,7 +10491,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10518,14 +10528,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45671</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10538,7 +10548,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10575,14 +10585,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45261</v>
+        <v>46008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10595,7 +10605,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>9.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10632,14 +10642,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45520</v>
+        <v>46008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10652,7 +10662,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10689,14 +10699,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44307</v>
+        <v>46008</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10709,7 +10719,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10746,14 +10756,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>46008</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10766,7 +10776,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10803,14 +10813,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44902</v>
+        <v>46008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10823,7 +10833,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10860,14 +10870,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>44817</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10880,7 +10890,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10917,14 +10927,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10937,7 +10947,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10974,14 +10984,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10994,7 +11004,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11031,14 +11041,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45103</v>
+        <v>44379</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11051,7 +11061,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11088,14 +11098,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45173</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11108,7 +11118,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11145,14 +11155,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44251</v>
+        <v>45173</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11165,7 +11175,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11202,14 +11212,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11222,7 +11232,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11259,14 +11269,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45425</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11278,13 +11288,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>13.9</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11321,14 +11326,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44536</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11341,7 +11346,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.8</v>
+        <v>12.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11378,14 +11383,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45415</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11398,7 +11403,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11435,14 +11440,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45191</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11455,7 +11460,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>14.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11492,14 +11497,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11512,7 +11517,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11549,14 +11554,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11569,7 +11574,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11606,14 +11611,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45229</v>
+        <v>45129</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11626,7 +11631,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11663,14 +11668,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44307</v>
+        <v>45590</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11720,14 +11725,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45099</v>
+        <v>44586</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11740,7 +11745,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11777,14 +11782,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45610</v>
+        <v>44949</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11797,7 +11802,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11834,14 +11839,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11854,7 +11859,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11891,14 +11896,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45229</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11911,7 +11916,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11948,14 +11953,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45776</v>
+        <v>45303</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11968,7 +11973,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12005,14 +12010,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12025,7 +12030,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12062,14 +12067,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45355</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12081,13 +12086,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>3.2</v>
+        <v>27.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45103</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12143,13 +12143,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12186,14 +12181,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45782</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12205,13 +12200,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12248,14 +12238,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12267,13 +12257,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>4.3</v>
+        <v>11.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12310,14 +12295,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12330,7 +12315,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12367,14 +12352,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45789</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12387,7 +12372,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.5</v>
+        <v>11.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12424,14 +12409,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45796</v>
+        <v>44907</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12444,7 +12429,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12481,14 +12466,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12501,7 +12486,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12538,14 +12523,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45579</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12558,7 +12543,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12595,14 +12580,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12614,13 +12599,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12637,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45805</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12676,8 +12656,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12699,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45068</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12733,8 +12718,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12761,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45813</v>
+        <v>45782</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12790,8 +12780,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12823,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45784.389375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12847,8 +12842,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>17.8</v>
+        <v>4.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45789</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>10.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45261</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45716.44847222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45645.50744212963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>45720.82733796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45597.46708333334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45209.68086805556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45800.37550925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44629.92825231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45805</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45068</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45586.69385416667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45894.47996527778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45712.37207175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45597.54476851852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>45597.46230324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45903.44864583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45903.4487037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44872.92953703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45597.54983796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45824.47469907408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45369</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45922.36961805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45922.37399305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45835.42211805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45835.42732638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45103</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45044</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45197</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45936.46731481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45841.51340277777</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45716.45487268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45943.47648148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45142</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45581</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45945.31181712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45946.46940972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45653</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45946.47498842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45946.34521990741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45534</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45953.67825231481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45953.66450231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45636.56960648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45562.46512731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45873.58252314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45873.58949074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45587.44475694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45181.37510416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45751</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45279.56569444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45974.67400462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>45974.66077546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45974.67253472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>46009</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>45405.71074074074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45405.71791666667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>45642.68560185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>46009</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>46009</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>46009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>46009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>46009</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>45974.68696759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>45981.65486111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>45208.57646990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>45716.44008101852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45716.44365740741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45987.4022800926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45986.60693287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44813</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>46009</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44280.43743055555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45987.57859953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45986.4734837963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45989.58756944445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>46009</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45642.68184027778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45642.6925</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44750</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>45994.61371527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45995.34100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45995.34748842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45603</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45278.48112268518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44508.31758101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44307</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>46002.37674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>46002.37826388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>46002.39738425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>46002.40135416666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>46007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>46006.71821759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>46007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>46007.65609953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>46008.61618055555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45671</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>46008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>46008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>46008</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>46008</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>46008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44817</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45256.40148148148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44379</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45173</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45173</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45442.46135416667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45405.72387731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44901.63513888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45415</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45191</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44458.89255787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45129</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45590</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44586</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44949</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45229</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45303</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45355</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45103</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45700.68622685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45685.71274305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45553.47987268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44907</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44928.92290509259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44889.53895833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45782.6568287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45782.6719212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45782</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45784.389375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45789</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45261</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45716.44847222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45645.50744212963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>45720.82733796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45597.46708333334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45209.68086805556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45800.37550925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44629.92825231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45805</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45068</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45813</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45586.69385416667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45894.47996527778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45712.37207175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45597.54476851852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>45597.46230324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45903.44864583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45903.4487037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44872.92953703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45597.54983796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45824.47469907408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45369</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45922.36961805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45922.37399305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45520</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45835.42211805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45835.42732638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45103</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45044</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45197</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45936.46731481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45841.51340277777</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45716.45487268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45943.47648148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45142</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45581</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45945.31181712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45946.46940972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45653</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45946.47498842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45946.34521990741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45534</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45953.67825231481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45953.66450231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45636.56960648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45562.46512731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45873.58252314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45502</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45873.58949074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45587.44475694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45229</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45181.37510416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45751</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45279.56569444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45974.67400462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>45974.66077546297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45974.67253472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>46009</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>45405.71074074074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45405.71791666667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>45642.68560185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>46009</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>46009</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>46009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>46009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>46009</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44957</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>45974.68696759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>45981.65486111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>45208.57646990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>45716.44008101852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45716.44365740741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45987.4022800926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45986.60693287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>44813</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>46009</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44280.43743055555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45987.57859953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45986.4734837963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45989.58756944445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>46009</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45642.68184027778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45642.6925</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44750</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>45994.61371527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45995.34100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45995.34748842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45603</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45278.48112268518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44508.31758101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44307</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>46002.37674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>46002.37826388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>46002.39738425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>46002.40135416666</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>46007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>46006.71821759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>46007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>46007.65609953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>46008.61618055555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45671</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>46008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>46008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>46008</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>46008</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>46008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44817</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45256.40148148148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44379</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45173</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45173</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45442.46135416667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45405.72387731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44901.63513888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45415</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45191</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44458.89255787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45217</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45129</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45590</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44586</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44949</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45229</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45303</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45180</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45355</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45103</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45700.68622685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45685.71274305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44902</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45553.47987268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44907</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44928.92290509259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44889.53895833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45782.6568287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45782.6719212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45782</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45784.389375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45789</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 31667-2021</t>
+          <t>A 41136-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44369</v>
+        <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Vedskivlav
+Nästlav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 31667-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Lakritsmusseron
@@ -630,177 +720,176 @@
 Talltaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 41136-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Vedskivlav
-Nästlav
 Vedticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 1855-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45671</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -809,139 +898,50 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 54858-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Vedskivlav
-Vedticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 59847-2024</t>
+          <t>A 63800-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45639</v>
+        <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Trana</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 59847-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63800-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45278.42076388889</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Trana</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45173</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45462</v>
+        <v>45173</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45462</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>12.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45665</v>
+        <v>45462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45261</v>
+        <v>45462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45590</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44307</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>17.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>18.6</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45579</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45180</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3920,13 +3920,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3963,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3983,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.3</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4020,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45805</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4040,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4077,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45068</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4097,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4134,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45813</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4154,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>7.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4191,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45740</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4211,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4248,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4268,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4305,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45581</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4325,7 +4320,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4377,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4434,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4471,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45581</v>
+        <v>44482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4491,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4605,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4662,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>44750</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4723,8 +4718,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>17.8</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45910</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45369</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.4</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45502</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45217</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45520</v>
+        <v>44379</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44251</v>
+        <v>45197</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>13.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45103</v>
+        <v>45044</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45044</v>
+        <v>45751</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>10.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45197</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>44813</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45142</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45581</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45610</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45653</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45303</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45534</v>
+        <v>45369</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>12.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>44949</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45142</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45671</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>11.1</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45968</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45502</v>
+        <v>45603</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>44908</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45078</v>
+        <v>44957</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45973</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45229</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45425</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7174,13 +7174,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>13.9</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7217,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45973</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7237,7 +7232,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7274,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45671</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7294,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7331,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45415</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7388,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45968</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7408,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>15.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7445,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45751</v>
+        <v>45129</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7465,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7502,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45973</v>
+        <v>45534</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7522,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7559,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45973</v>
+        <v>45355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7579,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>27.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7616,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7636,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7673,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7693,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7730,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7750,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>18.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7787,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7807,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7844,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46009</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7864,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7901,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7921,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7958,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7978,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8015,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8035,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8072,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46009</v>
+        <v>45103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8129,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46009</v>
+        <v>45078</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8149,7 +8144,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>8.1</v>
+        <v>4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8186,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46009</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8206,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8243,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46009</v>
+        <v>45653</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8263,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8300,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46009</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8320,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8357,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44957</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8377,7 +8372,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8414,14 +8409,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8434,7 +8429,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>15.3</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8471,14 +8466,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8491,7 +8486,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8528,14 +8523,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>44586</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8548,7 +8543,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8580,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44908</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8600,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8637,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8662,7 +8657,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8699,14 +8694,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45665</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8719,7 +8714,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8756,14 +8751,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8776,7 +8771,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8813,14 +8808,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8833,7 +8828,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8870,14 +8865,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44813</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8890,7 +8885,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8927,14 +8922,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46009</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8947,7 +8942,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8984,14 +8979,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45229</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9004,7 +8999,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9041,14 +9036,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9061,7 +9056,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9098,14 +9093,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9118,7 +9113,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9155,14 +9150,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9175,7 +9170,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9212,14 +9207,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46009</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9232,7 +9227,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9269,14 +9264,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45642.6925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9289,7 +9284,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>11.7</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9321,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45191</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9341,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>14.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9378,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44750</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9402,13 +9397,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9445,14 +9435,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>46007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9465,7 +9455,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9502,14 +9492,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44536</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9522,7 +9512,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9559,14 +9549,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>46007</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9579,7 +9569,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>10.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9616,14 +9606,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9636,7 +9626,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9673,14 +9663,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45603</v>
+        <v>44817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9693,7 +9683,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9730,14 +9720,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>46008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9750,7 +9740,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9787,14 +9777,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45999</v>
+        <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9807,7 +9797,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9844,14 +9834,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>46008</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9864,7 +9854,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9901,14 +9891,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44307</v>
+        <v>46008</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9921,7 +9911,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9958,14 +9948,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44482</v>
+        <v>46008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9978,7 +9968,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10015,14 +10005,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10035,7 +10025,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10072,14 +10062,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10129,14 +10119,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10149,7 +10139,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10186,14 +10176,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10206,7 +10196,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10243,14 +10233,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10263,7 +10253,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10300,14 +10290,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>46009</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10320,7 +10310,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10357,14 +10347,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10377,7 +10367,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>10.2</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10414,14 +10404,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>46009</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10434,7 +10424,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10471,14 +10461,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>46009</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10491,7 +10481,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10528,14 +10518,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45671</v>
+        <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10548,7 +10538,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10585,14 +10575,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10605,7 +10595,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.3</v>
+        <v>8.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10642,14 +10632,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46008</v>
+        <v>45671</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10662,7 +10652,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10699,14 +10689,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46008</v>
+        <v>44907</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10719,7 +10709,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10756,14 +10746,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46008</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10776,7 +10766,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10813,14 +10803,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46008</v>
+        <v>45261</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10833,7 +10823,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10870,14 +10860,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44817</v>
+        <v>45520</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10890,7 +10880,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10927,14 +10917,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>44307</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10947,7 +10937,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10984,14 +10974,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45740</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11004,7 +10994,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11041,14 +11031,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44379</v>
+        <v>44902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11061,7 +11051,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11098,14 +11088,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45173</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11118,7 +11108,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11155,14 +11145,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45173</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11175,7 +11165,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11212,14 +11202,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11232,7 +11222,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11269,14 +11259,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45103</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11289,7 +11279,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11326,14 +11316,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11346,7 +11336,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>12.1</v>
+        <v>1.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11383,14 +11373,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45415</v>
+        <v>44251</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11403,7 +11393,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11440,14 +11430,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45191</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11460,7 +11450,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>14.9</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11497,14 +11487,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45425</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11516,8 +11506,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>13.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11554,14 +11549,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45217</v>
+        <v>44536</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11574,7 +11569,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11611,14 +11606,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45129</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11631,7 +11626,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11668,14 +11663,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45590</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11688,7 +11683,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11725,14 +11720,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44586</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11745,7 +11740,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11782,14 +11777,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44949</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11802,7 +11797,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11839,14 +11834,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45103</v>
+        <v>45229</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11859,7 +11854,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11896,14 +11891,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45229</v>
+        <v>44307</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11916,7 +11911,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11953,14 +11948,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45303</v>
+        <v>45099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11973,7 +11968,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12010,14 +12005,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45180</v>
+        <v>45610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12030,7 +12025,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12067,14 +12062,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45355</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12087,7 +12082,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>27.1</v>
+        <v>3.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12124,14 +12119,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45103</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12144,7 +12139,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12181,14 +12176,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45776</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12201,7 +12196,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12238,14 +12233,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12258,7 +12253,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>11.1</v>
+        <v>7.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12295,14 +12290,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44902</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12314,8 +12309,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12371,8 +12371,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>11.7</v>
+        <v>3.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12409,14 +12414,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44907</v>
+        <v>45782</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12428,8 +12433,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12466,14 +12476,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45784.389375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12485,8 +12495,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12523,14 +12538,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12543,7 +12558,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12580,14 +12595,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45776</v>
+        <v>45789</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12600,7 +12615,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12637,14 +12652,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45796</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12656,13 +12671,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>10.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12699,14 +12709,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12718,13 +12728,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12761,14 +12766,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45782</v>
+        <v>45579</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12780,13 +12785,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12823,14 +12823,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45789</v>
+        <v>45805</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45796</v>
+        <v>45813</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>10.9</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 41136-2023</t>
+          <t>A 31667-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45173</v>
+        <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>16.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Goliatmusseron
+Lakritsmusseron
+Orange taggsvamp
+Skrovlig taggsvamp
+Tallriska
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 41136-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -630,121 +720,31 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 31667-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Goliatmusseron
-Lakritsmusseron
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallriska
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45671</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,14 +934,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63800-2023</t>
+          <t>A 59847-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45278.42076388889</v>
+        <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 63800-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45278.42076388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Trana</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 59847-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45173</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45173</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>12.1</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45103</v>
+        <v>45462</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>11.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45462</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45462</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>11.1</v>
+        <v>5.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45502</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.8</v>
+        <v>11.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45590</v>
+        <v>45099</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>44902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>17.8</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45261</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45581</v>
+        <v>44907</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45180</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>10.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45740</v>
+        <v>45776</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45581</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4319,8 +4319,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4376,8 +4381,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4424,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4431,6 +4441,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -4471,14 +4486,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44482</v>
+        <v>45784.389375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4490,8 +4505,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4548,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45789</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4568,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4605,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45910</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4625,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4662,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45910</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4662,7 +4682,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4719,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44750</v>
+        <v>44307</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4718,13 +4738,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4776,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4796,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.9</v>
+        <v>18.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4833,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4853,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4890,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4910,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4947,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4967,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +5004,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45796</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5024,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>10.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5061,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5081,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5118,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45217</v>
+        <v>45579</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5138,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5175,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5179,8 +5194,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5237,7 +5257,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5294,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44379</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5314,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5351,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45197</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5371,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5408,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45502</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5428,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5465,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5485,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>13.3</v>
+        <v>9.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5522,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45044</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5542,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5579,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5599,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5636,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45751</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5656,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5693,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45068</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5713,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>8.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5750,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44813</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5770,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5807,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45813</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5827,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5864,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5884,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5921,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5941,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5978,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45369</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5998,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.5</v>
+        <v>12.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6035,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45502</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6055,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6112,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>17.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6149,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45520</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6169,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6206,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>44251</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6226,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6263,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6283,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45303</v>
+        <v>45103</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45369</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6454,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6491,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44949</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6511,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6548,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45044</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6568,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6605,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45142</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6625,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6662,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45671</v>
+        <v>45197</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6682,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6719,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45968</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6739,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6776,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45142</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6796,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45603</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6853,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6890,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44908</v>
+        <v>45581</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6910,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44957</v>
+        <v>45610</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6967,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +7004,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45973</v>
+        <v>45653</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7024,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7061,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45534</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7081,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7118,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7138,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7175,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7195,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7232,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45973</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7232,7 +7252,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7289,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7309,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7346,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45415</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7346,7 +7366,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7403,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7423,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>15.3</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7460,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45129</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7460,7 +7480,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7497,14 +7517,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45534</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7537,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7574,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45355</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7594,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>27.1</v>
+        <v>5.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7631,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7651,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.2</v>
+        <v>11.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7688,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45502</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7688,7 +7708,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.9</v>
+        <v>4.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7725,14 +7745,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45078</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7745,7 +7765,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>18.6</v>
+        <v>4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7782,14 +7802,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7802,7 +7822,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7839,14 +7859,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7859,7 +7879,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7896,14 +7916,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7916,7 +7936,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7953,14 +7973,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7973,7 +7993,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8010,14 +8030,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45425</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8029,8 +8049,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>13.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8067,14 +8092,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45103</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8124,14 +8149,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45078</v>
+        <v>45671</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8144,7 +8169,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8181,14 +8206,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45751</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8201,7 +8226,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8238,14 +8263,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45653</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8258,7 +8283,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8295,14 +8320,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8315,7 +8340,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8352,14 +8377,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8372,7 +8397,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8409,14 +8434,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8429,7 +8454,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8466,14 +8491,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>44957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8486,7 +8511,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8523,14 +8548,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44586</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8543,7 +8568,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8580,14 +8605,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45968</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8600,7 +8625,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8637,14 +8662,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45999</v>
+        <v>45973</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8657,7 +8682,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8694,14 +8719,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45665</v>
+        <v>45973</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8714,7 +8739,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8751,14 +8776,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8771,7 +8796,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8808,14 +8833,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8828,7 +8853,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8865,14 +8890,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8885,7 +8910,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8922,14 +8947,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8942,7 +8967,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8979,14 +9004,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45229</v>
+        <v>44908</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8999,7 +9024,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9036,14 +9061,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9093,14 +9118,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9113,7 +9138,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9150,14 +9175,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9170,7 +9195,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>15.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9207,14 +9232,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9227,7 +9252,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>11.7</v>
+        <v>6.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9264,14 +9289,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45642.6925</v>
+        <v>44813</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9284,7 +9309,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9321,14 +9346,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45191</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9341,7 +9366,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14.9</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9378,14 +9403,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9435,14 +9460,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46007</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9455,7 +9480,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9492,14 +9517,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9512,7 +9537,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9549,14 +9574,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46007</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9569,7 +9594,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>10.2</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9606,14 +9631,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9626,7 +9651,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9663,14 +9688,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44817</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9683,7 +9708,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9720,14 +9745,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46008</v>
+        <v>45642.6925</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9740,7 +9765,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9777,14 +9802,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46008</v>
+        <v>44750</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9796,8 +9821,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9834,14 +9864,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46008</v>
+        <v>44536</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9854,7 +9884,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9891,14 +9921,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46008</v>
+        <v>45603</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9911,7 +9941,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9948,14 +9978,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46008</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9968,7 +9998,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10005,14 +10035,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10025,7 +10055,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10062,14 +10092,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10082,7 +10112,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10119,14 +10149,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10176,14 +10206,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46009</v>
+        <v>45999</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10196,7 +10226,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10233,14 +10263,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46009</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10253,7 +10283,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10290,14 +10320,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46009</v>
+        <v>44307</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10310,7 +10340,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10347,14 +10377,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46009</v>
+        <v>44482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10367,7 +10397,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10404,14 +10434,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10424,7 +10454,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10461,14 +10491,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10481,7 +10511,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10518,14 +10548,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46009</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10538,7 +10568,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10575,14 +10605,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46009</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10595,7 +10625,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10632,14 +10662,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45671</v>
+        <v>46007</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10652,7 +10682,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10689,14 +10719,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44907</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10709,7 +10739,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10746,14 +10776,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>46007</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10766,7 +10796,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>10.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10803,14 +10833,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45261</v>
+        <v>45671</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10823,7 +10853,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10860,14 +10890,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45520</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10880,7 +10910,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10917,14 +10947,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44307</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10937,7 +10967,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10974,14 +11004,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>44817</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10994,7 +11024,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11031,14 +11061,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44902</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11051,7 +11081,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11088,14 +11118,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>46008</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11108,7 +11138,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11145,14 +11175,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>46008</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11165,7 +11195,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11202,14 +11232,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45740</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11222,7 +11252,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11259,14 +11289,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45103</v>
+        <v>44379</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11279,7 +11309,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11316,14 +11346,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11336,7 +11366,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11373,14 +11403,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44251</v>
+        <v>45173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11393,7 +11423,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11430,14 +11460,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>46008</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11450,7 +11480,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11487,14 +11517,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45425</v>
+        <v>46008</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11506,13 +11536,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>13.9</v>
+        <v>3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11549,14 +11574,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44536</v>
+        <v>46008</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11569,7 +11594,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11606,14 +11631,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11626,7 +11651,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>11.7</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11663,14 +11688,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11683,7 +11708,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11720,14 +11745,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11740,7 +11765,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>12.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11777,14 +11802,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>46009</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11797,7 +11822,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11834,14 +11859,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45229</v>
+        <v>46009</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11854,7 +11879,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11891,14 +11916,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44307</v>
+        <v>46009</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11911,7 +11936,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11948,14 +11973,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45099</v>
+        <v>46009</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11968,7 +11993,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12005,14 +12030,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45610</v>
+        <v>45415</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12025,7 +12050,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12062,14 +12087,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45191</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12082,7 +12107,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.1</v>
+        <v>14.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12119,14 +12144,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12139,7 +12164,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12176,14 +12201,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45776</v>
+        <v>46009</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12196,7 +12221,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12233,14 +12258,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>46009</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12253,7 +12278,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12290,14 +12315,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>46009</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12309,13 +12334,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12352,14 +12372,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>46009</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12371,13 +12391,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12414,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45782</v>
+        <v>45217</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12433,13 +12448,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12476,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45129</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12495,13 +12505,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12538,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45590</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12558,7 +12563,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12595,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45789</v>
+        <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12615,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12652,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45796</v>
+        <v>44949</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12672,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>10.9</v>
+        <v>7.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12709,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12729,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12766,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45579</v>
+        <v>45229</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12786,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12823,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45303</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12842,13 +12847,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45805</v>
+        <v>45180</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>9.6</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45068</v>
+        <v>45355</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>8.6</v>
+        <v>27.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45813</v>
+        <v>45103</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 31667-2021</t>
+          <t>A 41136-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44369</v>
+        <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Vedskivlav
+Nästlav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 31667-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Lakritsmusseron
@@ -630,121 +720,31 @@
 Talltaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 41136-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Vedskivlav
-Nästlav
-Vedticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45671</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,14 +934,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 59847-2024</t>
+          <t>A 63800-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45639</v>
+        <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Trana</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 59847-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63800-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45278.42076388889</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Trana</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44509</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 54997-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44509</v>
+        <v>44886.50350694444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>6.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 54632-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44883.39190972222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44300</v>
+        <v>44509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44319</v>
+        <v>44509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44861</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>44861</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 47661-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44854.45994212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54997-2022</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44886.50350694444</v>
+        <v>44300</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2362,14 +2362,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54632-2022</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44883.39190972222</v>
+        <v>44319</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2476,14 +2476,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47661-2022</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44854.45994212963</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 9497-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44251.50324074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2590,14 +2590,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9497-2021</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44251.50324074074</v>
+        <v>45462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 71446-2021</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44540.46146990741</v>
+        <v>45462</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>11.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>44813</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 71446-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>44540.46146990741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45462</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45462</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45173</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45173</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45099</v>
+        <v>45303</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45665</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44902</v>
+        <v>45369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>12.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>44949</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.7</v>
+        <v>7.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45261</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44907</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45590</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45142</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.3</v>
+        <v>12.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45103</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45603</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45776</v>
+        <v>44908</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>44957</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4319,13 +4319,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45805</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4381,13 +4376,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4424,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45782</v>
+        <v>45068</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4443,13 +4433,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>8.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4486,14 +4471,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4505,13 +4490,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4548,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45789</v>
+        <v>45581</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4605,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4625,7 +4605,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4662,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45910</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4682,7 +4662,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4719,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44307</v>
+        <v>45813</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4739,7 +4719,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4776,14 +4756,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45129</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4796,7 +4776,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>18.6</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4833,14 +4813,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45534</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4853,7 +4833,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4890,14 +4870,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45355</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4910,7 +4890,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>27.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4947,14 +4927,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45180</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4967,7 +4947,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>13.3</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5004,14 +4984,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45796</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5024,7 +5004,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10.9</v>
+        <v>18.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5061,14 +5041,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5081,7 +5061,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5118,14 +5098,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45579</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5138,7 +5118,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>17.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5175,14 +5155,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45740</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5194,13 +5174,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5212,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5257,7 +5232,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5294,14 +5269,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5314,7 +5289,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5351,14 +5326,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5346,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5408,14 +5383,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5403,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5465,14 +5440,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45805</v>
+        <v>45078</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5460,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>9.6</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5522,14 +5497,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45581</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5517,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5579,14 +5554,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45581</v>
+        <v>44902</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5636,14 +5611,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45653</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5631,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5693,14 +5668,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45068</v>
+        <v>44482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5713,7 +5688,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5750,14 +5725,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5770,7 +5745,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5807,14 +5782,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45813</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5827,7 +5802,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5864,14 +5839,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5884,7 +5859,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5921,14 +5896,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5941,7 +5916,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5978,14 +5953,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45369</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5998,7 +5973,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12.4</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6035,14 +6010,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45502</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6055,7 +6030,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6067,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>44586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6112,7 +6087,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>17.8</v>
+        <v>7.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6149,14 +6124,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45520</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6169,7 +6144,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6206,14 +6181,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44251</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6226,7 +6201,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6263,14 +6238,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45103</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6283,7 +6258,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6295,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6315,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6352,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45103</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6397,7 +6372,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6409,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>44251</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6454,7 +6429,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>10.5</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6491,14 +6466,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45665</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6511,7 +6486,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6548,14 +6523,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45044</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6568,7 +6543,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6605,14 +6580,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>44750</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6624,8 +6599,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6662,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45197</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6682,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6719,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45229</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6739,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6776,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45142</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6796,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>11.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45642.6925</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6853,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6890,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45581</v>
+        <v>45191</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6910,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>14.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45610</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6967,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7004,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45653</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7024,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7061,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45534</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7081,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7118,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>44817</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7138,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7175,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7195,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7239,7 +7219,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7289,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45217</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7309,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.9</v>
+        <v>4.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7346,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7366,7 +7346,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7403,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7423,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7460,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>44379</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7480,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7517,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7537,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7574,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45197</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7594,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7631,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45502</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7651,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7688,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45502</v>
+        <v>45425</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7707,8 +7687,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>4.2</v>
+        <v>13.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7745,14 +7730,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45078</v>
+        <v>44536</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7765,7 +7750,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7802,14 +7787,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7822,7 +7807,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.1</v>
+        <v>13.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7859,14 +7844,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45044</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7879,7 +7864,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7916,14 +7901,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45229</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7936,7 +7921,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7973,14 +7958,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7993,7 +7978,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>11.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8030,14 +8015,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45425</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8049,13 +8034,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>13.9</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8092,14 +8072,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8092,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8149,14 +8129,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45671</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8149,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8213,7 +8193,7 @@
         <v>45751</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8263,14 +8243,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8263,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8320,14 +8300,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8320,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8377,14 +8357,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8377,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8434,14 +8414,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8434,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8491,14 +8471,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44957</v>
+        <v>44907</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8491,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8548,14 +8528,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8548,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8605,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45968</v>
+        <v>45261</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8662,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45973</v>
+        <v>45520</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8662,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8719,14 +8699,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45973</v>
+        <v>45229</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8719,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8776,14 +8756,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>44307</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8776,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8833,14 +8813,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>44307</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8833,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8890,14 +8870,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45099</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8890,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8947,14 +8927,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45610</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8947,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9004,14 +8984,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44908</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9004,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9061,14 +9041,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9118,14 +9098,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9118,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9175,14 +9155,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9195,7 +9175,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>15.3</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9232,14 +9212,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9252,7 +9232,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9289,14 +9269,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44813</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9309,7 +9289,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9346,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9366,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9403,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9423,7 +9403,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9460,14 +9440,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9480,7 +9460,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9517,14 +9497,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9537,7 +9517,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9574,14 +9554,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9594,7 +9574,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9631,14 +9611,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45776</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9651,7 +9631,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9688,14 +9668,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9708,7 +9688,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9745,14 +9725,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9764,8 +9744,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9802,14 +9787,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44750</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9812,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9864,14 +9849,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44536</v>
+        <v>45782</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9883,8 +9868,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9921,14 +9911,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45603</v>
+        <v>45784.389375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9940,8 +9930,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9978,14 +9973,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9993,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10035,14 +10030,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10050,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10092,14 +10087,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10107,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10149,14 +10144,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10164,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10206,14 +10201,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45999</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10221,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10263,14 +10258,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10278,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10320,14 +10315,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44307</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10335,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10377,14 +10372,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44482</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10392,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10434,14 +10429,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10449,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10491,14 +10486,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10506,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10548,14 +10543,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45796</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10563,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10605,14 +10600,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10620,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10662,14 +10657,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46007</v>
+        <v>45579</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10677,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10719,14 +10714,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10738,8 +10733,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10776,14 +10776,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46007</v>
+        <v>45968</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10833,14 +10833,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45671</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10890,14 +10890,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45973</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10947,14 +10947,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11004,14 +11004,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44817</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11061,14 +11061,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11118,14 +11118,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46008</v>
+        <v>45973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11175,14 +11175,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46008</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>15.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11232,14 +11232,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45740</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11289,14 +11289,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44379</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11346,14 +11346,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45173</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11403,14 +11403,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45173</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11460,14 +11460,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46008</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11517,14 +11517,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46008</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11574,14 +11574,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46008</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11631,14 +11631,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11688,14 +11688,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11745,14 +11745,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>12.1</v>
+        <v>3.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11802,14 +11802,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11859,14 +11859,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46009</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11916,14 +11916,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11973,14 +11973,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46009</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12030,14 +12030,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45415</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12087,14 +12087,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45191</v>
+        <v>46007</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>14.9</v>
+        <v>4.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12144,14 +12144,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12201,14 +12201,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46009</v>
+        <v>46007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.4</v>
+        <v>10.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12258,14 +12258,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46009</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12315,14 +12315,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>8.1</v>
+        <v>0.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12372,14 +12372,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45217</v>
+        <v>46008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45129</v>
+        <v>46008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45590</v>
+        <v>46008</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44586</v>
+        <v>46009</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.9</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44949</v>
+        <v>46009</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45103</v>
+        <v>46009</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45229</v>
+        <v>46009</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45303</v>
+        <v>46009</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45180</v>
+        <v>46009</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45355</v>
+        <v>46009</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>27.1</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45103</v>
+        <v>46009</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 41136-2023</t>
+          <t>A 31667-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45173</v>
+        <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>16.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Goliatmusseron
+Lakritsmusseron
+Orange taggsvamp
+Skrovlig taggsvamp
+Tallriska
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 41136-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -630,132 +720,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 31667-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Goliatmusseron
-Lakritsmusseron
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallriska
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 54858-2022</t>
+          <t>A 1855-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44884</v>
+        <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -801,6 +801,103 @@
         <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Granticka
+Tretåig hackspett
+Ullticka
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -809,139 +906,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 1855-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Granticka
-Tretåig hackspett
-Ullticka
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63800-2023</t>
+          <t>A 59847-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45278.42076388889</v>
+        <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 63800-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45278.42076388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Trana</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 59847-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54997-2022</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44886.50350694444</v>
+        <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.3</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 54632-2022</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44883.39190972222</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44509</v>
+        <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44509</v>
+        <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44861</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47661-2022</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44854.45994212963</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 54997-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44300</v>
+        <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2362,14 +2362,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 54632-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44319</v>
+        <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2476,14 +2476,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 47661-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>9.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9497-2021</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44251.50324074074</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2590,14 +2590,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 9497-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45462</v>
+        <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 71446-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45462</v>
+        <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>11.1</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>45462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44813</v>
+        <v>45462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>11.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 71446-2021</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44540.46146990741</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45502</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45173</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45173</v>
+        <v>45665</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45261</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>11.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45303</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45369</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>12.4</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44949</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45796</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>10.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45590</v>
+        <v>46009</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45142</v>
+        <v>46009</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45671</v>
+        <v>46009</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>46009</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>44307</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12.1</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>18.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45103</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45603</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44908</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4205,8 +4205,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4248,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44957</v>
+        <v>46009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4268,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4305,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>46009</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4320,7 +4325,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45805</v>
+        <v>46009</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45068</v>
+        <v>46009</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4434,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.6</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4471,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45805</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4491,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45581</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>13.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45415</v>
+        <v>45068</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>8.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45813</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4662,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45813</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4719,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4756,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45129</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4776,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4813,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45534</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4833,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>17.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4870,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45355</v>
+        <v>45581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4890,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>27.1</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4927,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45180</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4947,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4984,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5004,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>18.6</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5061,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5098,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5118,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>17.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45740</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5175,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5212,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5232,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45103</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5403,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45078</v>
+        <v>45369</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>12.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45581</v>
+        <v>45502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5517,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5554,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44902</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45653</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5631,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5668,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44482</v>
+        <v>45520</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5688,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5725,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>44251</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5745,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5782,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5802,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5839,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45103</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5859,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5903,7 +5908,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5953,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45044</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5973,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6010,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45197</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6030,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6067,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44586</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6087,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6124,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6144,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6181,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6201,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6238,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45103</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6258,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6295,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6315,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6352,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45910</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6372,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6409,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44251</v>
+        <v>45142</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6429,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6466,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45665</v>
+        <v>45581</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6486,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6523,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45610</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6543,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6580,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44750</v>
+        <v>45653</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6599,13 +6604,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45229</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>11.7</v>
+        <v>5.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45191</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>14.9</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>11.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45502</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44817</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45229</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7231,8 +7231,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>13.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7274,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45217</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7294,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7331,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7346,7 +7351,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7388,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7408,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>11.1</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7445,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44379</v>
+        <v>45751</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7460,7 +7465,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7497,14 +7502,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7522,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7559,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45197</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7579,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7616,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45502</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7636,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7673,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45425</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7687,13 +7692,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>13.9</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7730,14 +7730,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44536</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7787,14 +7787,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7844,14 +7844,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45044</v>
+        <v>44957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7901,14 +7901,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7958,14 +7958,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>11.7</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8015,14 +8015,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8072,14 +8072,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8129,14 +8129,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>44908</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8186,14 +8186,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45751</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>10.8</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8243,14 +8243,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45671</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8300,14 +8300,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8357,14 +8357,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>44813</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8414,14 +8414,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8471,14 +8471,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44907</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8528,14 +8528,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>11.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45261</v>
+        <v>45642.6925</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>9.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45520</v>
+        <v>44750</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8661,8 +8661,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8699,14 +8704,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45229</v>
+        <v>44536</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8719,7 +8724,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8756,14 +8761,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44307</v>
+        <v>45603</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8776,7 +8781,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8813,14 +8818,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44307</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8833,7 +8838,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8870,14 +8875,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45099</v>
+        <v>45968</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8890,7 +8895,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8927,14 +8932,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45610</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8947,7 +8952,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8984,14 +8989,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9004,7 +9009,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9041,14 +9046,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45973</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,14 +9103,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45973</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9118,7 +9123,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9155,14 +9160,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44307</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9175,7 +9180,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9212,14 +9217,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>44482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9232,7 +9237,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9269,14 +9274,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9289,7 +9294,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9331,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45910</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9351,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9388,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9403,7 +9408,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9440,14 +9445,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9460,7 +9465,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9497,14 +9502,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9517,7 +9522,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9554,14 +9559,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9574,7 +9579,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9611,14 +9616,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45776</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9631,7 +9636,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9668,14 +9673,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9688,7 +9693,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9725,14 +9730,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45671</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9744,13 +9749,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9787,14 +9787,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9806,13 +9806,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9849,14 +9844,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45782</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9868,13 +9863,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9911,14 +9901,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45784.389375</v>
+        <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9930,13 +9920,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9973,14 +9958,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9993,7 +9978,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10030,14 +10015,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10050,7 +10035,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10087,14 +10072,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45789</v>
+        <v>45740</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10107,7 +10092,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10144,14 +10129,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>44379</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10164,7 +10149,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10201,14 +10186,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10221,7 +10206,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10258,14 +10243,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45173</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10278,7 +10263,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10315,14 +10300,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10335,7 +10320,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10372,14 +10357,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10392,7 +10377,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10429,14 +10414,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10449,7 +10434,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10486,14 +10471,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10506,7 +10491,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10543,14 +10528,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45796</v>
+        <v>45999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10563,7 +10548,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>10.9</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10600,14 +10585,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10620,7 +10605,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>12.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10657,14 +10642,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45579</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10677,7 +10662,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10714,14 +10699,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45415</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10733,13 +10718,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10776,14 +10756,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45968</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10776,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10833,14 +10813,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10833,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10890,14 +10870,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45973</v>
+        <v>45191</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10890,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>14.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10947,14 +10927,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10947,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11004,14 +10984,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11004,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11061,14 +11041,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>46007</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11061,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11118,14 +11098,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45973</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11118,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11175,14 +11155,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>46007</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11175,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>15.3</v>
+        <v>10.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11232,14 +11212,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11232,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11289,14 +11269,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11289,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11346,14 +11326,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45217</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11346,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11403,14 +11383,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>46008</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11403,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11460,14 +11440,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45129</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11460,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11517,14 +11497,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>46008</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11517,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11574,14 +11554,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45590</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11574,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11631,14 +11611,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>44586</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11631,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11688,14 +11668,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>46008</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11688,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11745,14 +11725,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45999</v>
+        <v>46008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11745,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11802,14 +11782,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>46008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11802,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11859,14 +11839,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>44949</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11859,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11916,14 +11896,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45103</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11936,7 +11916,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11973,14 +11953,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11993,7 +11973,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12030,14 +12010,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45303</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12050,7 +12030,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12087,14 +12067,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46007</v>
+        <v>45180</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12107,7 +12087,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12144,14 +12124,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45355</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12164,7 +12144,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.9</v>
+        <v>27.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12201,14 +12181,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46007</v>
+        <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12221,7 +12201,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12258,14 +12238,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12278,7 +12258,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12315,14 +12295,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46008</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12335,7 +12315,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.3</v>
+        <v>11.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12372,14 +12352,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46008</v>
+        <v>44902</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12372,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12409,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46008</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12449,7 +12429,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>11.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12466,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46008</v>
+        <v>44907</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12506,7 +12486,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12523,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46008</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12563,7 +12543,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12580,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46009</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12620,7 +12600,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>7.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12637,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46009</v>
+        <v>45776</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12657,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12694,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46009</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12733,8 +12713,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12756,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46009</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12790,8 +12775,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12818,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46009</v>
+        <v>45782</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12847,8 +12837,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12880,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46009</v>
+        <v>45784.389375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12904,8 +12899,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46009</v>
+        <v>45789</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46009</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44748</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44300</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44300</v>
+        <v>44319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44319</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45462</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45462</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>11.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45665</v>
+        <v>45261</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45261</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45796</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45579</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46009</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46009</v>
+        <v>45796</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.5</v>
+        <v>10.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46009</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46009</v>
+        <v>45579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44307</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3977,8 +3977,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4020,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4040,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4077,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4129,14 +4134,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4154,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4191,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>44307</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4205,13 +4210,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4248,14 +4248,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46009</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>18.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4305,14 +4305,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46009</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46009</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46009</v>
+        <v>45805</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45805</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45068</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13.3</v>
+        <v>8.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45068</v>
+        <v>45813</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45813</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>13.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>46007</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>17.8</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45581</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>46007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>17.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45910</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45581</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5445,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45369</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12.4</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45502</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45520</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44251</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>46008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45103</v>
+        <v>46008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45044</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45197</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45369</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.9</v>
+        <v>12.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45502</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45520</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>44251</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45910</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45142</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45581</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45610</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45653</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45534</v>
+        <v>46008</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>46008</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>46008</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45103</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45502</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45078</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45229</v>
+        <v>45044</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45425</v>
+        <v>45197</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7231,13 +7231,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>13.9</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7274,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7294,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7331,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45671</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7351,7 +7346,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7388,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7408,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7445,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45751</v>
+        <v>46009</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7465,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>10.8</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7502,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>46009</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7522,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7559,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>46009</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7579,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7616,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>46009</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7636,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7673,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45142</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7693,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7730,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45581</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7750,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7787,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7807,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7844,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44957</v>
+        <v>45610</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7864,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7901,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45653</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7921,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7958,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45968</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7978,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8015,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>46009</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8035,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8072,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>46009</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8092,7 +8087,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8129,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44908</v>
+        <v>45534</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8149,7 +8144,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8186,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>46009</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8206,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8243,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45973</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8263,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8300,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8320,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8357,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44813</v>
+        <v>46009</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8377,7 +8372,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8414,14 +8409,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8434,7 +8429,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8471,14 +8466,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8491,7 +8486,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8528,14 +8523,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8548,7 +8543,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8580,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8600,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>15.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8637,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44750</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8661,13 +8656,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8704,14 +8694,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44536</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8724,7 +8714,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8761,14 +8751,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45603</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8781,7 +8771,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>11.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8818,14 +8808,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45502</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8838,7 +8828,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8875,14 +8865,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45968</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8895,7 +8885,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8932,14 +8922,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8952,7 +8942,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8989,14 +8979,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9009,7 +8999,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9046,14 +9036,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45973</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9066,7 +9056,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9103,14 +9093,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45973</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9123,7 +9113,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9160,14 +9150,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44307</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9180,7 +9170,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9217,14 +9207,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44482</v>
+        <v>45229</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9237,7 +9227,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9274,14 +9264,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9293,8 +9283,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>13.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9331,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9351,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9388,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9408,7 +9403,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9445,14 +9440,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45671</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9465,7 +9460,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>15.3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9502,14 +9497,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45751</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9522,7 +9517,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.2</v>
+        <v>10.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9559,14 +9554,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9579,7 +9574,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9616,14 +9611,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9636,7 +9631,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9673,14 +9668,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9693,7 +9688,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9730,14 +9725,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45671</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9750,7 +9745,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9787,14 +9782,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9807,7 +9802,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9844,14 +9839,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9864,7 +9859,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9901,14 +9896,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44817</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9921,7 +9916,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9958,14 +9953,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>44957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9978,7 +9973,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10015,14 +10010,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45999</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10035,7 +10030,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10072,14 +10067,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45740</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10092,7 +10087,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10129,14 +10124,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44379</v>
+        <v>44908</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10149,7 +10144,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10186,14 +10181,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45173</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10206,7 +10201,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10243,14 +10238,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45173</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10263,7 +10258,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10300,14 +10295,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>44813</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10320,7 +10315,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10357,14 +10352,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10377,7 +10372,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.8</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10414,14 +10409,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10434,7 +10429,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10471,14 +10466,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45642.6925</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10491,7 +10486,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10528,14 +10523,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45999</v>
+        <v>44750</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10547,8 +10542,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10585,14 +10585,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>44536</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>12.1</v>
+        <v>4.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10642,14 +10642,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45603</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10699,14 +10699,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45415</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10756,14 +10756,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10813,14 +10813,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>44307</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10870,14 +10870,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45191</v>
+        <v>44482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>14.9</v>
+        <v>5.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10927,14 +10927,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45671</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10984,14 +10984,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>44817</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11041,14 +11041,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46007</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11098,14 +11098,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11155,14 +11155,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46007</v>
+        <v>44379</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>10.2</v>
+        <v>3.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11212,14 +11212,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45173</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11269,14 +11269,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45173</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11326,14 +11326,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45217</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11383,14 +11383,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46008</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11440,14 +11440,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45129</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>12.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46008</v>
+        <v>45415</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11554,14 +11554,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45590</v>
+        <v>45191</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.5</v>
+        <v>14.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44586</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.9</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11668,14 +11668,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46008</v>
+        <v>45217</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46008</v>
+        <v>45129</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46008</v>
+        <v>45590</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44949</v>
+        <v>44586</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45103</v>
+        <v>44949</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45229</v>
+        <v>45103</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45303</v>
+        <v>45229</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45180</v>
+        <v>45303</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45355</v>
+        <v>45180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>27.1</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45103</v>
+        <v>45355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>27.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>11.1</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44902</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>44902</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44907</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>11.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44907</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45776</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45776</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12713,13 +12713,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12756,14 +12751,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12781,7 +12776,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12818,14 +12813,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45782</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12843,7 +12838,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12880,14 +12875,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45782</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12900,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12937,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45789</v>
+        <v>45784.389375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12961,8 +12956,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45789</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44300</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44319</v>
+        <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45261</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45261</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45789</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45973</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45973</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>10.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45796</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45579</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45796</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3977,13 +3977,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>10.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4020,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4040,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4077,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4097,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4134,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45579</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4154,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4191,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44307</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4211,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4248,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4268,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>18.6</v>
+        <v>7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4305,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4324,8 +4319,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>15.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45805</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45805</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45068</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45813</v>
+        <v>44307</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>13.3</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>18.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46007</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46007</v>
+        <v>45813</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10.2</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>13.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45910</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>17.8</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45910</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>17.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45581</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46008</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46008</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45369</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>12.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45369</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>12.4</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45502</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45502</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45520</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44251</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45520</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46008</v>
+        <v>44251</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46008</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>45103</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6927,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45197</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45044</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45197</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46009</v>
+        <v>45968</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7497,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46009</v>
+        <v>45142</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46009</v>
+        <v>45581</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46009</v>
+        <v>45610</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45142</v>
+        <v>45653</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7725,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45581</v>
+        <v>45534</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7782,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7839,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45610</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45653</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7953,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45968</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8010,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46009</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>11.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8067,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46009</v>
+        <v>45502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>8.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8124,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45534</v>
+        <v>45999</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8181,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46009</v>
+        <v>45078</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.1</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8238,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45973</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8295,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45973</v>
+        <v>45229</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8352,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46009</v>
+        <v>45425</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8371,8 +8371,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>13.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8409,14 +8414,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8429,7 +8434,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8466,14 +8471,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8486,7 +8491,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8523,14 +8528,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45671</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8543,7 +8548,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8580,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8600,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>15.3</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8637,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8657,7 +8662,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8694,14 +8699,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8714,7 +8719,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8751,14 +8756,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45751</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8771,7 +8776,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8808,14 +8813,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45502</v>
+        <v>46007</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8865,14 +8870,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8885,7 +8890,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8922,14 +8927,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45078</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8942,7 +8947,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8979,14 +8984,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>46007</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8999,7 +9004,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.9</v>
+        <v>10.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9036,14 +9041,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9056,7 +9061,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9093,14 +9098,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9113,7 +9118,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9150,14 +9155,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9170,7 +9175,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9207,14 +9212,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45229</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9227,7 +9232,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9264,14 +9269,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45425</v>
+        <v>44957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9283,13 +9288,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>13.9</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9440,14 +9440,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45671</v>
+        <v>46008</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9497,14 +9497,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45751</v>
+        <v>46008</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>10.8</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9554,14 +9554,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>44908</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9611,14 +9611,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9668,14 +9668,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9725,14 +9725,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>44813</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9782,14 +9782,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9839,14 +9839,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>46008</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9896,14 +9896,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>46008</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9953,14 +9953,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44957</v>
+        <v>46008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10010,14 +10010,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45999</v>
+        <v>46009</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10067,14 +10067,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>46009</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10124,14 +10124,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44908</v>
+        <v>46009</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10181,14 +10181,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10238,14 +10238,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>11.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10295,14 +10295,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44813</v>
+        <v>45642.6925</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10352,14 +10352,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>44750</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10371,8 +10371,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10409,14 +10414,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>46009</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10429,7 +10434,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>11.7</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10466,14 +10471,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45642.6925</v>
+        <v>46009</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10486,7 +10491,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10523,14 +10528,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44750</v>
+        <v>44536</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10542,13 +10547,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10585,14 +10585,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44536</v>
+        <v>46009</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10642,14 +10642,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45603</v>
+        <v>46009</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10699,14 +10699,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45603</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10756,14 +10756,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10813,14 +10813,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44307</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10870,14 +10870,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44482</v>
+        <v>44307</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10927,14 +10927,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45671</v>
+        <v>44482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10984,14 +10984,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44817</v>
+        <v>45671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11041,14 +11041,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>44817</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11098,14 +11098,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45740</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11155,14 +11155,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44379</v>
+        <v>45740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11212,14 +11212,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45173</v>
+        <v>44379</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11269,14 +11269,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>45173</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11326,14 +11326,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11383,14 +11383,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11440,14 +11440,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>12.1</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45415</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>12.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11554,14 +11554,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45191</v>
+        <v>45415</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>14.9</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45191</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>14.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11668,14 +11668,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45217</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45129</v>
+        <v>45217</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45590</v>
+        <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44586</v>
+        <v>45590</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44949</v>
+        <v>44586</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45103</v>
+        <v>44949</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45229</v>
+        <v>45103</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45303</v>
+        <v>45229</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45180</v>
+        <v>45303</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45355</v>
+        <v>45180</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>27.1</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45103</v>
+        <v>45355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>27.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>11.1</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44902</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>44902</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44907</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>11.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44907</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45776</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45776</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12770,13 +12770,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12813,14 +12808,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12838,7 +12833,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12875,14 +12870,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45782</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12900,7 +12895,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12937,14 +12932,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12957,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12994,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45789</v>
+        <v>45784.389375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13018,8 +13013,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 31667-2021</t>
+          <t>A 41136-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44369</v>
+        <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Vedskivlav
+Nästlav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 31667-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Lakritsmusseron
@@ -630,177 +720,176 @@
 Talltaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 41136-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Vedskivlav
-Nästlav
 Vedticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 1855-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45671</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -809,139 +898,50 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 54858-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Vedskivlav
-Vedticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 59847-2024</t>
+          <t>A 63800-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45639</v>
+        <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Trana</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 59847-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63800-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45278.42076388889</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Trana</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45173</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45462</v>
+        <v>45173</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45462</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45099</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45665</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3122,8 +3122,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3165,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3185,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3222,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45261</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3236,8 +3241,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3284,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45789</v>
+        <v>45782</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3293,8 +3303,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45784.389375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3407,8 +3422,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3465,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45973</v>
+        <v>45103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3485,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3522,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45973</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3542,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3579,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3599,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3636,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3656,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3693,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3713,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3750,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3770,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3807,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3827,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3864,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3884,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3921,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3941,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3978,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45796</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3998,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>10.9</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4055,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4092,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4112,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4149,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45579</v>
+        <v>45502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4169,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4206,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4206,7 +4226,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4263,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4283,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4320,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4319,13 +4339,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4377,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45796</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4397,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>15.3</v>
+        <v>10.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4434,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45910</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4454,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4491,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45805</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4511,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4548,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4568,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4605,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44307</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4625,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4662,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4682,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4719,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4723,8 +4738,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>18.6</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4781,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4801,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4838,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45968</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4858,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4895,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45068</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4915,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4952,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45813</v>
+        <v>45805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4972,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +5009,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5029,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13.3</v>
+        <v>5.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5066,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45910</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5086,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5123,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45068</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5143,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>8.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5180,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45590</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5200,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5224,7 +5244,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5274,14 +5294,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5314,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>17.8</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5351,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5371,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5408,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5428,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5465,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45581</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5485,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5522,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5542,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5579,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45813</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5599,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5636,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5656,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5693,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5713,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5750,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45973</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5770,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5807,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5827,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>15.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5864,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5884,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>17.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5921,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5941,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5978,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5998,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6035,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45369</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6055,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>12.4</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6112,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6149,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6169,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6206,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45502</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6226,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6263,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6283,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6454,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6491,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6511,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6548,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6568,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6605,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45520</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6625,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6662,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44251</v>
+        <v>45740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6682,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6719,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6739,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6776,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6796,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45103</v>
+        <v>45581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6853,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6890,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6910,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>10.5</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45044</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6967,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +7004,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45197</v>
+        <v>44482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7024,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7061,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7081,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7118,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7138,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7162,7 +7182,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7212,14 +7232,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7232,7 +7252,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7289,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7309,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7346,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>44750</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7345,8 +7365,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7408,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45999</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7428,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7465,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45968</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7460,7 +7485,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7497,14 +7522,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45142</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7542,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7579,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45581</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7599,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7636,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45610</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7656,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7693,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45653</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7688,7 +7713,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7725,14 +7750,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45534</v>
+        <v>45217</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7745,7 +7770,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7782,14 +7807,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7802,7 +7827,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7839,14 +7864,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7859,7 +7884,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>11.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7896,14 +7921,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7916,7 +7941,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7953,14 +7978,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45197</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7973,7 +7998,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8010,14 +8035,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45502</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8030,7 +8055,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8067,14 +8092,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45502</v>
+        <v>46007</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8124,14 +8149,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45999</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8181,14 +8206,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45078</v>
+        <v>46007</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8201,7 +8226,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>10.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8238,14 +8263,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8258,7 +8283,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8295,14 +8320,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45229</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8315,7 +8340,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.7</v>
+        <v>13.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8352,14 +8377,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45425</v>
+        <v>46008</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8371,13 +8396,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>13.9</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8414,14 +8434,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45044</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8434,7 +8454,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8471,14 +8491,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>46008</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8491,7 +8511,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8528,14 +8548,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45671</v>
+        <v>46008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8548,7 +8568,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8605,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>46008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8625,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8662,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>46008</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8662,7 +8682,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8699,14 +8719,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45751</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8719,7 +8739,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8756,14 +8776,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45751</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8776,7 +8796,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>10.8</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8813,14 +8833,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46007</v>
+        <v>44813</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8833,7 +8853,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8870,14 +8890,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8890,7 +8910,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8927,14 +8947,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>46009</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8947,7 +8967,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8984,14 +9004,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9004,7 +9024,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>10.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9041,14 +9061,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9061,7 +9081,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9098,14 +9118,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>46009</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9118,7 +9138,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9155,14 +9175,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>46009</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9175,7 +9195,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9212,14 +9232,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>46009</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9232,7 +9252,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9269,14 +9289,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44957</v>
+        <v>46009</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9289,7 +9309,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9346,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>46009</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9366,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9403,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>46009</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9403,7 +9423,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>8.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9440,14 +9460,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46008</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9460,7 +9480,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>11.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9497,14 +9517,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46008</v>
+        <v>45303</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9517,7 +9537,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9554,14 +9574,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44908</v>
+        <v>45369</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9574,7 +9594,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>12.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9611,14 +9631,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>44949</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9631,7 +9651,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9668,14 +9688,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9688,7 +9708,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9725,14 +9745,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44813</v>
+        <v>45142</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9745,7 +9765,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9782,14 +9802,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45671</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9802,7 +9822,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9839,14 +9859,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46008</v>
+        <v>45603</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9859,7 +9879,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9896,14 +9916,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46008</v>
+        <v>44908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9953,14 +9973,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46008</v>
+        <v>44957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9973,7 +9993,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10010,14 +10030,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46009</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10030,7 +10050,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10067,14 +10087,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46009</v>
+        <v>45415</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10087,7 +10107,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10124,14 +10144,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46009</v>
+        <v>45129</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10144,7 +10164,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10181,14 +10201,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46009</v>
+        <v>45534</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10201,7 +10221,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10238,14 +10258,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45355</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10258,7 +10278,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>11.7</v>
+        <v>27.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10295,14 +10315,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10315,7 +10335,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>18.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10352,14 +10372,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44750</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10371,13 +10391,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10414,14 +10429,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46009</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10434,7 +10449,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10471,14 +10486,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46009</v>
+        <v>45103</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10491,7 +10506,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10528,14 +10543,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44536</v>
+        <v>45078</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10548,7 +10563,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10585,14 +10600,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46009</v>
+        <v>45653</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10605,7 +10620,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>8.1</v>
+        <v>2.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10642,14 +10657,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46009</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10662,7 +10677,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10699,14 +10714,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45603</v>
+        <v>44586</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10719,7 +10734,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>7.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10756,14 +10771,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10776,7 +10791,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10813,14 +10828,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45665</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10833,7 +10848,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10870,14 +10885,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44307</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10890,7 +10905,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10927,14 +10942,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44482</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10947,7 +10962,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10984,14 +10999,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45671</v>
+        <v>45229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11004,7 +11019,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11041,14 +11056,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44817</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11061,7 +11076,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11098,14 +11113,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45642.6925</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11118,7 +11133,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11155,14 +11170,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45740</v>
+        <v>45191</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11175,7 +11190,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>7.2</v>
+        <v>14.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11212,14 +11227,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44379</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11232,7 +11247,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11269,14 +11284,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45173</v>
+        <v>44817</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11289,7 +11304,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11326,14 +11341,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45173</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11346,7 +11361,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11383,14 +11398,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11403,7 +11418,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11440,14 +11455,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11460,7 +11475,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11497,14 +11512,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45671</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11517,7 +11532,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>12.1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11554,14 +11569,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45415</v>
+        <v>44907</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11574,7 +11589,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11611,14 +11626,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45191</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11631,7 +11646,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>14.9</v>
+        <v>4.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11668,14 +11683,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45261</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11688,7 +11703,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11725,14 +11740,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45217</v>
+        <v>45520</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11745,7 +11760,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11782,14 +11797,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45129</v>
+        <v>44307</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11802,7 +11817,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11839,14 +11854,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45590</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11859,7 +11874,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11896,14 +11911,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44586</v>
+        <v>44902</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11916,7 +11931,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11953,14 +11968,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44949</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11973,7 +11988,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12010,14 +12025,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45103</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12030,7 +12045,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12067,14 +12082,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45229</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12087,7 +12102,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12124,14 +12139,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45303</v>
+        <v>45103</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12144,7 +12159,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12181,14 +12196,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45180</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12201,7 +12216,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12238,14 +12253,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45355</v>
+        <v>44251</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12258,7 +12273,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>27.1</v>
+        <v>2.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12295,14 +12310,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45103</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12315,7 +12330,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12352,14 +12367,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45425</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12371,8 +12386,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>13.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12409,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>44536</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12429,7 +12449,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>11.1</v>
+        <v>4.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12466,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44902</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12486,7 +12506,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>11.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12523,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12543,7 +12563,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>11.7</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12580,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44907</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12600,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12637,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12657,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12694,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12714,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12751,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45776</v>
+        <v>44307</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12771,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12808,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45099</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12827,13 +12847,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12870,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45610</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12889,13 +12904,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12932,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45782</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12951,13 +12961,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12994,14 +12999,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13013,13 +13018,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z216"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 41136-2023</t>
+          <t>A 31667-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45173</v>
+        <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>16.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Goliatmusseron
+Lakritsmusseron
+Orange taggsvamp
+Skrovlig taggsvamp
+Tallriska
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 41136-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -630,132 +720,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 31667-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Goliatmusseron
-Lakritsmusseron
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallriska
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 54858-2022</t>
+          <t>A 1855-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44884</v>
+        <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -801,6 +801,103 @@
         <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Granticka
+Tretåig hackspett
+Ullticka
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -809,139 +906,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 1855-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Granticka
-Tretåig hackspett
-Ullticka
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63800-2023</t>
+          <t>A 59847-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45278.42076388889</v>
+        <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 63800-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45278.42076388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Trana</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 59847-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45173</v>
+        <v>45462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45173</v>
+        <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>11.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45776</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3122,13 +3122,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3165,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3185,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3222,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45261</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3241,13 +3236,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3284,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45782</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3303,13 +3293,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12.1</v>
+        <v>10.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3422,13 +3407,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3465,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45103</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3485,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3522,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3542,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3579,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3599,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3636,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3656,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>18.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3693,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3713,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3750,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45789</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3770,7 +3750,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3807,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45462</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3827,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>13.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3864,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45462</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3884,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.1</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3921,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3941,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3978,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3998,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4055,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4092,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4112,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4149,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45502</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>17.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4206,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4263,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4320,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4320,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4377,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45796</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4377,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4434,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45910</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4434,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4491,14 +4471,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4491,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>12.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4548,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4605,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4625,7 +4605,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4662,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45579</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4682,7 +4662,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4719,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4738,13 +4718,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4781,14 +4756,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4801,7 +4776,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4838,14 +4813,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45968</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4858,7 +4833,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4895,14 +4870,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4915,7 +4890,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4952,14 +4927,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45805</v>
+        <v>44251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4972,7 +4947,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5009,14 +4984,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45910</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5029,7 +5004,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5066,14 +5041,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45103</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5086,7 +5061,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5123,14 +5098,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45068</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5143,7 +5118,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5180,14 +5155,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45590</v>
+        <v>45044</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5200,7 +5175,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5212,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45197</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5257,7 +5232,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5294,14 +5269,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5314,7 +5289,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5351,14 +5326,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5346,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5408,14 +5383,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45973</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5403,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5465,14 +5440,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5460,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5522,14 +5497,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5517,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5579,14 +5554,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45813</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5574,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5636,14 +5611,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45142</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5631,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5693,14 +5668,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5713,7 +5688,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5750,14 +5725,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45973</v>
+        <v>45581</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5770,7 +5745,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5807,14 +5782,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45610</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5827,7 +5802,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>15.3</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5864,14 +5839,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5884,7 +5859,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>17.8</v>
+        <v>5.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5921,14 +5896,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45653</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5941,7 +5916,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5978,14 +5953,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45581</v>
+        <v>45534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5998,7 +5973,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6035,14 +6010,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6055,7 +6030,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6067,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6112,7 +6087,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6149,14 +6124,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6169,7 +6144,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6206,14 +6181,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6226,7 +6201,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.2</v>
+        <v>11.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6263,14 +6238,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6283,7 +6258,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6295,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45502</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6315,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6352,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45180</v>
+        <v>45078</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6397,7 +6372,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6409,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6454,7 +6429,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6491,14 +6466,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6511,7 +6486,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6548,14 +6523,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6568,7 +6543,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6605,14 +6580,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6625,7 +6600,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6662,14 +6637,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45740</v>
+        <v>45229</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6682,7 +6657,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6719,14 +6694,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6739,7 +6714,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6776,14 +6751,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6795,8 +6770,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>6.7</v>
+        <v>13.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45581</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6853,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6890,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6910,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45671</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6967,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7004,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44482</v>
+        <v>45751</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7024,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7061,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7081,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.5</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7118,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7138,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7175,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7195,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7232,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7252,7 +7232,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7289,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>44957</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7309,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7346,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44750</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7365,13 +7345,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7408,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45999</v>
+        <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7465,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7522,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7579,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7636,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>44908</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7693,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7750,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45217</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7807,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7864,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11.1</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7921,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44379</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7978,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45197</v>
+        <v>44813</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8035,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45502</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8092,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46007</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8087,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.2</v>
+        <v>15.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8149,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8169,7 +8144,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8206,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46007</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>10.2</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8263,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8320,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13.3</v>
+        <v>4.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8377,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46008</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8372,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8434,14 +8409,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45044</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8429,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.8</v>
+        <v>11.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8491,14 +8466,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46008</v>
+        <v>45642.6925</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8486,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8548,14 +8523,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46008</v>
+        <v>44750</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8567,8 +8542,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8605,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46008</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8662,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46008</v>
+        <v>44536</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8662,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8719,14 +8699,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45751</v>
+        <v>45603</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8719,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>10.8</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8776,14 +8756,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8776,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8833,14 +8813,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44813</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8833,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8890,14 +8870,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8890,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8947,14 +8927,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46009</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8947,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9004,14 +8984,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46009</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9004,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9061,14 +9041,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9061,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9118,14 +9098,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46009</v>
+        <v>44307</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9118,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9175,14 +9155,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46009</v>
+        <v>44482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9195,7 +9175,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9232,14 +9212,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9252,7 +9232,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9289,14 +9269,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9309,7 +9289,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9346,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46009</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9366,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9403,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46009</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9423,7 +9403,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9460,14 +9440,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>46007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9480,7 +9460,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9517,14 +9497,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45303</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9537,7 +9517,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9574,14 +9554,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45369</v>
+        <v>46007</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9594,7 +9574,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>12.4</v>
+        <v>10.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9631,14 +9611,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44949</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9651,7 +9631,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9688,14 +9668,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45671</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9708,7 +9688,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9745,14 +9725,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45142</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9765,7 +9745,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9802,14 +9782,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45671</v>
+        <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9822,7 +9802,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9859,14 +9839,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45603</v>
+        <v>46008</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9879,7 +9859,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9916,14 +9896,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44908</v>
+        <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9936,7 +9916,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9973,14 +9953,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44957</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9993,7 +9973,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10030,14 +10010,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>46008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10050,7 +10030,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10087,14 +10067,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45415</v>
+        <v>46008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10107,7 +10087,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10144,14 +10124,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45129</v>
+        <v>46008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10164,7 +10144,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10201,14 +10181,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45534</v>
+        <v>45740</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10221,7 +10201,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10258,14 +10238,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45355</v>
+        <v>44379</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10278,7 +10258,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>27.1</v>
+        <v>3.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10315,14 +10295,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45173</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10335,7 +10315,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>18.6</v>
+        <v>3.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10372,14 +10352,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45173</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10392,7 +10372,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10429,14 +10409,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10449,7 +10429,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10486,14 +10466,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45103</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10506,7 +10486,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10543,14 +10523,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45078</v>
+        <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10563,7 +10543,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10600,14 +10580,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45653</v>
+        <v>46009</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10620,7 +10600,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10657,14 +10637,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>46009</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10677,7 +10657,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10714,14 +10694,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44586</v>
+        <v>46009</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10734,7 +10714,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10771,14 +10751,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10791,7 +10771,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10828,14 +10808,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45665</v>
+        <v>46009</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10848,7 +10828,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10885,14 +10865,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>46009</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10905,7 +10885,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10942,14 +10922,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10962,7 +10942,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10999,14 +10979,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45229</v>
+        <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11019,7 +10999,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11056,14 +11036,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45415</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11076,7 +11056,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11113,14 +11093,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45191</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11133,7 +11113,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>14.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11170,14 +11150,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45191</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11190,7 +11170,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>14.9</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11227,14 +11207,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45217</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11247,7 +11227,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11284,14 +11264,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44817</v>
+        <v>45129</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11304,7 +11284,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11341,14 +11321,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45590</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11361,7 +11341,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11398,14 +11378,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>44586</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11418,7 +11398,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11455,14 +11435,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 10074-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>46073.64571759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11475,7 +11455,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11512,14 +11492,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45671</v>
+        <v>44949</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11532,7 +11512,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11569,14 +11549,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44907</v>
+        <v>45103</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11589,7 +11569,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11626,14 +11606,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45229</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11646,7 +11626,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11683,14 +11663,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45261</v>
+        <v>45303</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11703,7 +11683,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>9.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11740,14 +11720,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45520</v>
+        <v>45180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11760,7 +11740,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11797,14 +11777,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44307</v>
+        <v>45355</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11817,7 +11797,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5</v>
+        <v>27.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11854,14 +11834,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11874,7 +11854,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11911,14 +11891,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44902</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11931,7 +11911,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11968,14 +11948,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11988,7 +11968,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12025,14 +12005,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>44902</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12045,7 +12025,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12082,14 +12062,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12102,7 +12082,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12139,14 +12119,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45103</v>
+        <v>44907</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12159,7 +12139,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12196,14 +12176,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12216,7 +12196,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12253,14 +12233,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44251</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12273,7 +12253,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12310,14 +12290,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12330,7 +12310,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12367,14 +12347,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45425</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12372,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>13.9</v>
+        <v>3.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12409,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44536</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12448,8 +12428,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12471,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45782</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12505,8 +12490,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12533,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45784.389375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12562,8 +12552,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12595,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45789</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12620,7 +12615,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12652,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12672,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12709,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45229</v>
+        <v>45796</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12734,7 +12729,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12766,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44307</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12791,7 +12786,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12823,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45099</v>
+        <v>45579</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12848,7 +12843,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12880,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45610</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12904,8 +12899,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45805</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.1</v>
+        <v>9.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12996,17 +12996,17 @@
       </c>
       <c r="R215" s="2" t="inlineStr"/>
     </row>
-    <row r="216">
+    <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13052,6 +13052,63 @@
         <v>0</v>
       </c>
       <c r="R216" s="2" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>A 27593-2025</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45716.44847222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45261</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45597.46708333334</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>45645.50744212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45720.82733796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44629.92825231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45586.69385416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45712.37207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45597.54476851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45597.46230324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45824.47469907408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44872.92953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>45597.54983796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>45894.47996527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45835.42211805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45835.42732638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45903.44864583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45903.4487037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45841.51340277777</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45910</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45103</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45044</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45197</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45922.36961805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45922.37399305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45716.45487268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45873.58252314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45142</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45581</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45610</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45873.58949074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>45653</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45936.46731481481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>45636.56960648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>45943.47648148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45562.46512731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45945.31181712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>45502</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>45078</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45946.46940972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45946.47498842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45946.34521990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45587.44475694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45229</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45953.67825231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45181.37510416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45953.66450231482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45671</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45751</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45279.56569444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45405.71074074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45405.71791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45642.68560185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44957</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45208.57646990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44908</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45716.44008101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45716.44365740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45974.67400462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45974.66077546297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45974.67253472222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44813</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44280.43743055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45974.68696759259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45981.65486111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45987.4022800926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45986.60693287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45987.57859953704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45986.4734837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45642.68184027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45642.6925</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44750</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>45989.58756944445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44536</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45603</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45994.61371527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45278.48112268518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45995.34100694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45995.34748842593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44508.31758101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44307</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>46002.37674768519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>46002.37826388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>46002.39738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>46002.40135416666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>46007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>46006.71821759259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>46007</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46007.65609953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45671</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>46008.61618055555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>46008</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45256.40148148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>46008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>46008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>46008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45740</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44379</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45173</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45173</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45442.46135416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45405.72387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>46009</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>46009</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>46009</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44901.63513888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>46009</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>46009</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45415</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45191</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44458.89255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45217</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45129</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>45590</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44586</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>46073.64571759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44949</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>45103</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>45229</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45303</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45355</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>45700.68622685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>45685.71274305556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44902</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45553.47987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44907</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44928.92290509259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44889.53895833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45782.6568287037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45782.6719212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45782</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45784.389375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45789</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45796</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45209.68086805556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45579</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45800.37550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45805</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45813</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44884</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44300</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44319</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45099</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45716.44847222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45261</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45076.66361111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45597.46708333334</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>45645.50744212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45720.82733796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44307</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45636.55809027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45636.61908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45597.55295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44629.92825231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45586.69385416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45712.37207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45597.54476851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45597.46230324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45824.47469907408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44872.92953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45894.4883449074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45894.48466435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>45597.54983796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>45894.47996527778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45835.42211805555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45835.42732638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45903.44864583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45903.4487037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45841.51340277777</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45910</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45103</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45044</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45197</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45922.36961805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45922.37399305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45716.45487268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45873.58252314815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45142</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45581</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45610</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45873.58949074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>45653</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45936.46731481481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>45636.56960648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>45943.47648148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45562.46512731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45945.31181712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>45502</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>45078</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45946.46940972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45946.47498842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45946.34521990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45587.44475694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45229</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45953.67825231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45181.37510416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45953.66450231482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45671</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45751</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45279.56569444444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45405.71074074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45405.71791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45642.68560185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44957</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>45966.75131944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45968</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45208.57646990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45973</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45973</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44908</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45716.44008101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45716.44365740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45974.67400462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45974.66077546297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45974.67253472222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44813</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44280.43743055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45974.68696759259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45981.65486111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45987.4022800926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45986.60693287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45987.57859953704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45986.4734837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45642.68184027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45642.6925</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44750</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>45989.58756944445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44536</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45603</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45994.61371527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45278.48112268518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45995.34100694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45995.34748842593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44508.31758101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44307</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>46002.37674768519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>46002.37826388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>46002.39738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>46002.40135416666</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>46007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>46006.71821759259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>46007</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46007.65609953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45671</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>46008.61618055555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>46008</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45256.40148148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>46008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>46008</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>46008</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45740</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44379</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45173</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45173</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45442.46135416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45405.72387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>46009</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>46009</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>46009</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44901.63513888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>46009</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>46009</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45415</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45191</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44458.89255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45217</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45129</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>45590</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44586</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>46073.64571759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44949</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>45103</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>45229</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45303</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45355</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45103</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>45700.68622685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>45685.71274305556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44902</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45553.47987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44907</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44928.92290509259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44889.53895833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45782.6568287037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45782.6719212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45782</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45784.389375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45789</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45796</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45209.68086805556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45579</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45800.37550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45805</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45813</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 31667-2021</t>
+          <t>A 41136-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44369</v>
+        <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Vedskivlav
+Nästlav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 31667-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Lakritsmusseron
@@ -630,177 +720,176 @@
 Talltaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 41136-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Vedskivlav
-Nästlav
 Vedticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 1855-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45671</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -809,139 +898,50 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 54858-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Vedskivlav
-Vedticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 59847-2024</t>
+          <t>A 63800-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45639</v>
+        <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Trana</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 59847-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63800-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45278.42076388889</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Trana</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24386-2021</t>
+          <t>A 70334-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44337.45984953704</v>
+        <v>44536</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1450,14 +1450,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70334-2021</t>
+          <t>A 24386-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44536</v>
+        <v>44337.45984953704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1564,14 +1564,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54653-2022</t>
+          <t>A 1052-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44883.4337962963</v>
+        <v>44571.69283564815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1052-2022</t>
+          <t>A 21748-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44571.69283564815</v>
+        <v>44322.55153935185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21748-2021</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44322.55153935185</v>
+        <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44509</v>
+        <v>44300</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44300</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44319</v>
+        <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44861</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 54997-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44886.50350694444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54997-2022</t>
+          <t>A 54653-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44886.50350694444</v>
+        <v>44883.4337962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 47661-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44854.45994212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>9.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2476,14 +2476,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47661-2022</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44854.45994212963</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>44251.50324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 71446-2021</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44540.46146990741</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 71446-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>44540.46146990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45462</v>
+        <v>45581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45462</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>11.1</v>
+        <v>3.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45173</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45173</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>44482</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45099</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45665</v>
+        <v>45103</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45261</v>
+        <v>44750</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3236,8 +3236,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3279,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3299,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3336,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3356,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3393,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3413,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>12.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3450,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3470,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3507,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45197</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3564,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44307</v>
+        <v>45502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3584,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3621,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3641,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>18.6</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3678,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3698,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>13.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3735,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45044</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3750,7 +3755,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3787,14 +3792,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45217</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3807,7 +3812,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>13.3</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3844,14 +3849,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3864,7 +3869,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3901,14 +3906,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3921,7 +3926,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.6</v>
+        <v>11.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3958,14 +3963,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45581</v>
+        <v>45751</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3978,7 +3983,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>10.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4015,14 +4020,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>44379</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4035,7 +4040,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4072,14 +4077,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45180</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4092,7 +4097,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4129,14 +4134,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4149,7 +4154,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>17.8</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4186,14 +4191,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>44813</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4206,7 +4211,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4243,14 +4248,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>44957</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4268,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4305,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4320,7 +4325,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4434,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4471,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45369</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4491,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45502</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45415</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45462</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4662,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4719,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>11.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4756,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4776,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>11.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4813,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45303</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4833,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4870,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45520</v>
+        <v>45369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4890,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>12.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4927,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44251</v>
+        <v>44949</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4947,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4984,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45910</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5004,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45103</v>
+        <v>45129</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5061,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5098,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5118,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45044</v>
+        <v>45642.6925</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5175,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5212,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45197</v>
+        <v>45534</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5232,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45142</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45355</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>27.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45671</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5403,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45191</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>14.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5517,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.9</v>
+        <v>18.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5554,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45142</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5631,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5668,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5688,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5725,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5745,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5782,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45610</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5802,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5839,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>44908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5859,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5896,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45653</v>
+        <v>45502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5916,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5953,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45534</v>
+        <v>45103</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5973,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6010,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6030,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6067,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45653</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6087,7 +6092,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6124,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6144,7 +6149,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6181,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>44586</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6201,7 +6206,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>11.1</v>
+        <v>7.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6238,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6258,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6295,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45502</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6315,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6352,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45078</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6372,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6409,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6429,7 +6434,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6466,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6486,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6523,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6543,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6580,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6600,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6637,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45229</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6657,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6694,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6714,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6751,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45425</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6770,13 +6775,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>45671</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6984,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45751</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>10.8</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45229</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>44907</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45590</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44957</v>
+        <v>45261</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45520</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45968</v>
+        <v>44307</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7497,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45973</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45973</v>
+        <v>45910</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44908</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>44902</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7725,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7782,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7839,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7953,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44813</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8010,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8067,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45103</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>15.3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8124,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8181,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 9474-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>44251</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8238,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8295,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8352,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45425</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8371,8 +8371,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>13.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8409,14 +8414,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>44536</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8429,7 +8434,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11.7</v>
+        <v>4.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8466,14 +8471,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8486,7 +8491,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>11.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8523,14 +8528,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44750</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8542,13 +8547,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8585,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8642,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44536</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8699,14 +8699,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45603</v>
+        <v>45229</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8756,14 +8756,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8813,14 +8813,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8870,14 +8870,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>44307</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8927,14 +8927,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8984,14 +8984,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9041,14 +9041,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45999</v>
+        <v>45099</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9098,14 +9098,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44307</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9155,14 +9155,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44482</v>
+        <v>45610</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9212,14 +9212,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9269,14 +9269,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9326,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9383,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45968</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9440,14 +9440,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46007</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9497,14 +9497,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9554,14 +9554,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46007</v>
+        <v>45973</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>10.2</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9611,14 +9611,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9668,14 +9668,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45671</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9725,14 +9725,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9782,14 +9782,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46008</v>
+        <v>45973</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9839,14 +9839,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46008</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.5</v>
+        <v>15.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9896,14 +9896,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44817</v>
+        <v>45776</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9953,14 +9953,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10010,14 +10010,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46008</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10067,14 +10067,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46008</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10124,14 +10124,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46008</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10143,8 +10143,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10181,14 +10186,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45740</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10200,8 +10205,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10238,14 +10248,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44379</v>
+        <v>45782</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10257,8 +10267,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10295,14 +10310,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45173</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10315,7 +10330,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10352,14 +10367,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45173</v>
+        <v>45784.389375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10371,8 +10386,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10409,14 +10429,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10429,7 +10449,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10466,14 +10486,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10486,7 +10506,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10523,14 +10543,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46009</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10543,7 +10563,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10580,14 +10600,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46009</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10600,7 +10620,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10637,14 +10657,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46009</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10657,7 +10677,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10694,14 +10714,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46009</v>
+        <v>45789</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10714,7 +10734,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10751,14 +10771,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10771,7 +10791,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>12.1</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10808,14 +10828,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46009</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10828,7 +10848,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10865,14 +10885,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46009</v>
+        <v>45999</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10885,7 +10905,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10922,14 +10942,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46009</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10942,7 +10962,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10979,14 +10999,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46009</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10999,7 +11019,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11036,14 +11056,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45415</v>
+        <v>45796</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11056,7 +11076,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>10.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11093,14 +11113,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45191</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11113,7 +11133,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>14.9</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11150,14 +11170,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11170,7 +11190,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11207,14 +11227,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45217</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11227,7 +11247,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11264,14 +11284,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45129</v>
+        <v>45579</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11284,7 +11304,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11321,14 +11341,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45590</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11341,7 +11361,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11378,14 +11398,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44586</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11397,8 +11417,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11435,14 +11460,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10074-2026</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46073.64571759259</v>
+        <v>46007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11455,7 +11480,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11492,14 +11517,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44949</v>
+        <v>45805</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11512,7 +11537,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11549,14 +11574,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45103</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11569,7 +11594,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11606,14 +11631,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45229</v>
+        <v>46007</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11626,7 +11651,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11663,14 +11688,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45303</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11683,7 +11708,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11720,14 +11745,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45180</v>
+        <v>45068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11740,7 +11765,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>8.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11777,14 +11802,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45355</v>
+        <v>46008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11797,7 +11822,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>27.1</v>
+        <v>0.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11834,14 +11859,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45103</v>
+        <v>46008</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11854,7 +11879,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11891,14 +11916,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>46008</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11911,7 +11936,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11948,14 +11973,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>46008</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11968,7 +11993,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>11.1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12005,14 +12030,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44902</v>
+        <v>46008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12025,7 +12050,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12062,14 +12087,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45813</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12082,7 +12107,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12119,14 +12144,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44907</v>
+        <v>46009</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12139,7 +12164,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12176,14 +12201,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>46009</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12196,7 +12221,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12233,14 +12258,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>46009</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12253,7 +12278,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12290,14 +12315,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45776</v>
+        <v>46009</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12310,7 +12335,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12347,14 +12372,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>46009</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12366,13 +12391,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12409,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>46009</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12428,13 +12448,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12471,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45782</v>
+        <v>46009</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12490,13 +12505,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12533,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12552,13 +12562,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>4.3</v>
+        <v>17.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12595,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45789</v>
+        <v>46009</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12615,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12652,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12672,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12709,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45796</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12729,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12766,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12786,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12823,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 10074-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45579</v>
+        <v>46073.64571759259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12843,7 +12848,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12880,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12899,13 +12904,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45805</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12999,14 +12999,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45068</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13056,14 +13056,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45813</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z217"/>
+  <dimension ref="A1:Z215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 41136-2023</t>
+          <t>A 31667-2021</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45173</v>
+        <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>16.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Goliatmusseron
+Lakritsmusseron
+Orange taggsvamp
+Skrovlig taggsvamp
+Tallriska
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 41136-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -630,132 +720,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 31667-2021</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Goliatmusseron
-Lakritsmusseron
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallriska
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 54858-2022</t>
+          <t>A 1855-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44884</v>
+        <v>45671</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -801,6 +801,103 @@
         <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Granticka
+Tretåig hackspett
+Ullticka
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -809,139 +906,42 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 1855-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Granticka
-Tretåig hackspett
-Ullticka
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63800-2023</t>
+          <t>A 59847-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45278.42076388889</v>
+        <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 63800-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45278.42076388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Trana</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 59847-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 70334-2021</t>
+          <t>A 24386-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44536</v>
+        <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1450,14 +1450,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24386-2021</t>
+          <t>A 70334-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44337.45984953704</v>
+        <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1564,14 +1564,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1052-2022</t>
+          <t>A 54653-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44571.69283564815</v>
+        <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1621,14 +1621,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 64083-2021</t>
+          <t>A 30690-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44509</v>
+        <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1678,14 +1678,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30690-2021</t>
+          <t>A 1052-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44365</v>
+        <v>44571.69283564815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1735,14 +1735,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21748-2021</t>
+          <t>A 64083-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44322.55153935185</v>
+        <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 21748-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44509</v>
+        <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44300</v>
+        <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44319</v>
+        <v>44300</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44861</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54997-2022</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44886.50350694444</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54653-2022</t>
+          <t>A 54997-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44883.4337962963</v>
+        <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47661-2022</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44854.45994212963</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2476,14 +2476,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 47661-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>9.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2590,14 +2590,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9497-2021</t>
+          <t>A 71446-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44251.50324074074</v>
+        <v>44540.46146990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 71446-2021</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44540.46146990741</v>
+        <v>45462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45581</v>
+        <v>45462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>11.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45173</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45173</v>
+        <v>45099</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44482</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45103</v>
+        <v>45665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44750</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3236,13 +3236,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3279,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45261</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3299,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3336,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45776</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3356,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3393,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3412,8 +3407,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>12.1</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3450,14 +3450,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45581</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3507,14 +3507,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45197</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3526,8 +3526,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3564,14 +3569,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45502</v>
+        <v>45782</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3583,8 +3588,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3621,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45784.389375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3640,8 +3650,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3678,14 +3693,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3698,7 +3713,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13.3</v>
+        <v>5.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3735,14 +3750,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45044</v>
+        <v>45789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3755,7 +3770,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3792,14 +3807,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45217</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3812,7 +3827,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3849,14 +3864,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3869,7 +3884,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3906,14 +3921,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3926,7 +3941,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.1</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3963,14 +3978,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45751</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3983,7 +3998,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>10.8</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4020,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44379</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4040,7 +4055,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4077,14 +4092,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45180</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4097,7 +4112,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4134,14 +4149,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4154,7 +4169,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4191,14 +4206,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44813</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4211,7 +4226,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4248,14 +4263,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44957</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4268,7 +4283,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4305,14 +4320,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4325,7 +4340,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4377,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45740</v>
+        <v>45796</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4397,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.2</v>
+        <v>10.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4434,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4454,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4491,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>44307</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4511,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4548,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45579</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4568,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4605,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45415</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4625,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>18.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4662,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45462</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4682,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4719,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45462</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4724,7 +4739,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4776,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4780,8 +4795,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4838,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45303</v>
+        <v>45910</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4838,7 +4858,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4895,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45369</v>
+        <v>45805</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4915,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.4</v>
+        <v>9.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4952,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44949</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4972,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.6</v>
+        <v>13.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +5009,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45068</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5009,7 +5029,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5066,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45129</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5066,7 +5086,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5123,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45813</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5123,7 +5143,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5180,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5200,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45534</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5237,7 +5257,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5294,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45142</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5294,7 +5314,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5351,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45355</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5371,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>27.1</v>
+        <v>7.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5408,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45671</v>
+        <v>45581</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5428,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5465,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45191</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5485,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>14.9</v>
+        <v>17.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5522,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5542,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>18.6</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5579,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5599,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5636,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5656,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5693,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44817</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5713,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5730,14 +5750,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45603</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5770,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5807,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45369</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5827,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>12.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5864,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44908</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5884,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5921,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45502</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5941,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5958,14 +5978,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45103</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5998,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6015,14 +6035,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45078</v>
+        <v>45502</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6055,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6072,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45653</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6112,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6129,14 +6149,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6149,7 +6169,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6186,14 +6206,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44586</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6206,7 +6226,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6243,14 +6263,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6263,7 +6283,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6300,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45520</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6320,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6357,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45103</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6377,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6414,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6434,7 +6454,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6471,14 +6491,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6491,7 +6511,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6528,14 +6548,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45665</v>
+        <v>45044</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6548,7 +6568,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6585,14 +6605,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45197</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6605,7 +6625,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6642,14 +6662,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6662,7 +6682,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6699,14 +6719,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6719,7 +6739,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6756,14 +6776,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6776,7 +6796,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6813,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6833,7 +6853,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6870,14 +6890,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6890,7 +6910,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6927,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45671</v>
+        <v>45142</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6947,7 +6967,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6984,14 +7004,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7004,7 +7024,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7041,14 +7061,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45229</v>
+        <v>45581</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7061,7 +7081,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7098,14 +7118,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44907</v>
+        <v>45610</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7118,7 +7138,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7155,14 +7175,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45653</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7175,7 +7195,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7212,14 +7232,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45590</v>
+        <v>45534</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7232,7 +7252,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7269,14 +7289,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45261</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7289,7 +7309,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>9.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7326,14 +7346,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45520</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7346,7 +7366,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7383,14 +7403,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44307</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7403,7 +7423,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7440,14 +7460,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45968</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7460,7 +7480,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7497,14 +7517,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45502</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7517,7 +7537,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7554,14 +7574,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45910</v>
+        <v>45078</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7574,7 +7594,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7611,14 +7631,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7631,7 +7651,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7668,14 +7688,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44902</v>
+        <v>45973</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7688,7 +7708,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7725,14 +7745,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7745,7 +7765,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7782,14 +7802,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7802,7 +7822,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7839,14 +7859,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7859,7 +7879,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7896,14 +7916,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7916,7 +7936,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7953,14 +7973,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7973,7 +7993,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>10.5</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8010,14 +8030,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45425</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8029,8 +8049,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>13.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8067,14 +8092,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45103</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8087,7 +8112,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8124,14 +8149,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45671</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8144,7 +8169,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8181,14 +8206,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9474-2021</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44251</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8201,7 +8226,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>15.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8238,14 +8263,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8258,7 +8283,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8295,14 +8320,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45751</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8315,7 +8340,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>10.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8352,14 +8377,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45425</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8371,13 +8396,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>13.9</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8414,14 +8434,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44536</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8434,7 +8454,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8471,14 +8491,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8491,7 +8511,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8528,14 +8548,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8548,7 +8568,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8585,14 +8605,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8605,7 +8625,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8642,14 +8662,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8662,7 +8682,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8699,14 +8719,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45229</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8719,7 +8739,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8756,14 +8776,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8776,7 +8796,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8813,14 +8833,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8833,7 +8853,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8870,14 +8890,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44307</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8890,7 +8910,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.5</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8927,14 +8947,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8947,7 +8967,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8984,14 +9004,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>44908</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9004,7 +9024,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9041,14 +9061,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45099</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9061,7 +9081,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9098,14 +9118,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9118,7 +9138,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9155,14 +9175,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45610</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9175,7 +9195,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9212,14 +9232,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44813</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9232,7 +9252,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9269,14 +9289,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9289,7 +9309,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9326,14 +9346,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9346,7 +9366,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9383,14 +9403,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45968</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9403,7 +9423,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9440,14 +9460,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45999</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9460,7 +9480,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9497,14 +9517,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9517,7 +9537,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>11.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9554,14 +9574,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45973</v>
+        <v>45642.6925</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9574,7 +9594,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9611,14 +9631,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>44750</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9630,8 +9650,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9668,14 +9693,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>44536</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9688,7 +9713,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9725,14 +9750,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9745,7 +9770,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9782,14 +9807,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45973</v>
+        <v>45603</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9802,7 +9827,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9839,14 +9864,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9859,7 +9884,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>15.3</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9896,14 +9921,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45776</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9916,7 +9941,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9953,14 +9978,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9973,7 +9998,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10010,14 +10035,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10030,7 +10055,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10067,14 +10092,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>46007</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10087,7 +10112,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.9</v>
+        <v>4.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10124,14 +10149,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10143,13 +10168,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10186,14 +10206,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>46007</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10205,13 +10225,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>3.6</v>
+        <v>10.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10248,14 +10263,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45782</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10267,13 +10282,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10310,14 +10320,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10330,7 +10340,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10367,14 +10377,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45784.389375</v>
+        <v>44307</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10386,13 +10396,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10429,14 +10434,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>44482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10449,7 +10454,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10486,14 +10491,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10506,7 +10511,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10543,14 +10548,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>46008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10563,7 +10568,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10600,14 +10605,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>46008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10620,7 +10625,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10657,14 +10662,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>46008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10677,7 +10682,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10714,14 +10719,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45789</v>
+        <v>46008</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10734,7 +10739,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10771,14 +10776,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>46008</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10791,7 +10796,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10828,14 +10833,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45671</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10848,7 +10853,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10885,14 +10890,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45999</v>
+        <v>46009</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10905,7 +10910,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10942,14 +10947,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10962,7 +10967,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10999,14 +11004,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11019,7 +11024,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11056,14 +11061,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45796</v>
+        <v>46009</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11076,7 +11081,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>10.9</v>
+        <v>5.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11113,14 +11118,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>46009</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11133,7 +11138,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11170,14 +11175,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>46009</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11190,7 +11195,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11227,14 +11232,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>46009</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11247,7 +11252,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>8.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11284,14 +11289,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45579</v>
+        <v>46009</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11304,7 +11309,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11341,14 +11346,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11361,7 +11366,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11398,14 +11403,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11417,13 +11422,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11460,14 +11460,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46007</v>
+        <v>45740</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11517,14 +11517,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45805</v>
+        <v>44379</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11574,14 +11574,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45173</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11631,14 +11631,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46007</v>
+        <v>45173</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11688,14 +11688,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11745,14 +11745,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45068</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11802,14 +11802,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46008</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.3</v>
+        <v>12.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11859,14 +11859,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 10074-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46008</v>
+        <v>46073.64571759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11916,14 +11916,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46008</v>
+        <v>45415</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11973,14 +11973,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46008</v>
+        <v>45191</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>14.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12030,14 +12030,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46008</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12087,14 +12087,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45813</v>
+        <v>45217</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12144,14 +12144,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46009</v>
+        <v>45129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12201,14 +12201,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46009</v>
+        <v>45590</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12258,14 +12258,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46009</v>
+        <v>44586</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12315,14 +12315,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46009</v>
+        <v>44949</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12372,14 +12372,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46009</v>
+        <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46009</v>
+        <v>45229</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46009</v>
+        <v>45303</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>17.8</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46009</v>
+        <v>45355</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>8.1</v>
+        <v>27.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10074-2026</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46073.64571759259</v>
+        <v>44902</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.9</v>
+        <v>11.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12939,17 +12939,17 @@
       </c>
       <c r="R214" s="2" t="inlineStr"/>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>44907</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12995,120 +12995,6 @@
         <v>0</v>
       </c>
       <c r="R215" s="2" t="inlineStr"/>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>A 36773-2025</t>
-        </is>
-      </c>
-      <c r="B216" s="1" t="n">
-        <v>45873.58949074074</v>
-      </c>
-      <c r="C216" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0</v>
-      </c>
-      <c r="P216" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>0</v>
-      </c>
-      <c r="R216" s="2" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>A 36775-2025</t>
-        </is>
-      </c>
-      <c r="B217" s="1" t="n">
-        <v>45873.5925462963</v>
-      </c>
-      <c r="C217" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0</v>
-      </c>
-      <c r="L217" t="n">
-        <v>0</v>
-      </c>
-      <c r="M217" t="n">
-        <v>0</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0</v>
-      </c>
-      <c r="P217" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>0</v>
-      </c>
-      <c r="R217" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 31667-2021</t>
+          <t>A 41136-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44369</v>
+        <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,15 +612,105 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Gammelgransskål
+Garnlav
+Vedskivlav
+Nästlav
+Vedticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 31667-2021</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44369</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Lakritsmusseron
@@ -630,177 +720,176 @@
 Talltaggsvamp</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 31667-2021 artfynd.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 31667-2021 karta.png", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 31667-2021 FSC-klagomål.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 31667-2021 FSC-klagomål mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 31667-2021 tillsynsbegäran.docx", "A 31667-2021")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 31667-2021 tillsynsbegäran mail.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 41136-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45173</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 54858-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
 Vedskivlav
-Nästlav
 Vedticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 41136-2023 artfynd.xlsx", "A 41136-2023")</f>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 41136-2023 karta.png", "A 41136-2023")</f>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 41136-2023 FSC-klagomål.docx", "A 41136-2023")</f>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 41136-2023 FSC-klagomål mail.docx", "A 41136-2023")</f>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 41136-2023 tillsynsbegäran.docx", "A 41136-2023")</f>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 41136-2023 tillsynsbegäran mail.docx", "A 41136-2023")</f>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 1855-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45671</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -809,128 +898,39 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 1855-2025 artfynd.xlsx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 1855-2025 karta.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/knärot/A 1855-2025 karta knärot.png", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 1855-2025 FSC-klagomål.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 1855-2025 FSC-klagomål mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 1855-2025 tillsynsbegäran.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 1855-2025 tillsynsbegäran mail.docx", "A 1855-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 1855-2025 prioriterade fågelarter.docx", "A 1855-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 54858-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Vedskivlav
-Vedticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 54858-2022 artfynd.xlsx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 54858-2022 karta.png", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 54858-2022 FSC-klagomål.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 54858-2022 FSC-klagomål mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 54858-2022 tillsynsbegäran.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 54858-2022 tillsynsbegäran mail.docx", "A 54858-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45639</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44748</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1621,14 +1621,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30690-2021</t>
+          <t>A 64083-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44365</v>
+        <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1678,14 +1678,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1052-2022</t>
+          <t>A 30690-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44571.69283564815</v>
+        <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1735,14 +1735,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 64083-2021</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21748-2021</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44322.55153935185</v>
+        <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 1052-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44509</v>
+        <v>44571.69283564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44509</v>
+        <v>44861</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 21748-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44300</v>
+        <v>44322.55153935185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44319</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44861</v>
+        <v>44300</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,14 +2362,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54632-2022</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44883.39190972222</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 54632-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44883.39190972222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45462</v>
+        <v>44957</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45462</v>
+        <v>45581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45099</v>
+        <v>45173</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45173</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45665</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>45103</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45261</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45776</v>
+        <v>45180</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3407,13 +3407,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3450,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3470,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3507,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3526,13 +3521,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3569,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45782</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3588,13 +3578,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>12.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3650,13 +3635,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3693,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45103</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3713,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3750,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45789</v>
+        <v>45425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3769,8 +3749,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>13.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3807,14 +3792,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>44536</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3827,7 +3812,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3864,14 +3849,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3884,7 +3869,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>11.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3921,14 +3906,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3941,7 +3926,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3978,14 +3963,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3998,7 +3983,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4020,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4055,7 +4040,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4092,14 +4077,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4112,7 +4097,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4149,14 +4134,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>45462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4154,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4206,14 +4191,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4211,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.7</v>
+        <v>11.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4263,14 +4248,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>44482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4283,7 +4268,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4320,14 +4305,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4340,7 +4325,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>10.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4377,14 +4362,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45796</v>
+        <v>45229</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4397,7 +4382,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.9</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4434,14 +4419,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>44307</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4491,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44307</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4511,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4548,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45579</v>
+        <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4605,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45099</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4625,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>18.6</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4662,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>44750</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4681,8 +4666,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4719,14 +4709,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45610</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4739,7 +4729,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4776,14 +4766,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4795,13 +4785,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4838,14 +4823,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45910</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4858,7 +4843,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4895,14 +4880,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45805</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4915,7 +4900,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4952,14 +4937,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4972,7 +4957,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>13.3</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5009,14 +4994,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45068</v>
+        <v>45590</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5029,7 +5014,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5066,14 +5051,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45415</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5086,7 +5071,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5123,14 +5108,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45813</v>
+        <v>45217</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5143,7 +5128,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5180,14 +5165,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5200,7 +5185,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5222,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5257,7 +5242,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5294,14 +5279,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5314,7 +5299,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5351,14 +5336,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5356,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5408,14 +5393,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45581</v>
+        <v>45197</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5413,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5465,14 +5450,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5485,7 +5470,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>17.8</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5522,14 +5507,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5542,7 +5527,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5579,14 +5564,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5599,7 +5584,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>13.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5636,14 +5621,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45044</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5656,7 +5641,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5693,14 +5678,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45129</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5713,7 +5698,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5750,14 +5735,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>45534</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5770,7 +5755,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5807,14 +5792,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45369</v>
+        <v>45355</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5827,7 +5812,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.4</v>
+        <v>27.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5864,14 +5849,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45776</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5884,7 +5869,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5921,14 +5906,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5941,7 +5926,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5978,14 +5963,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5998,7 +5983,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.7</v>
+        <v>18.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6035,14 +6020,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45502</v>
+        <v>45751</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6055,7 +6040,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>10.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6077,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6111,8 +6096,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6149,14 +6139,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6168,8 +6158,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6206,14 +6201,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6225,8 +6220,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6263,14 +6263,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45520</v>
+        <v>44813</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45103</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>45784.389375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6453,8 +6453,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6491,14 +6496,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6511,7 +6516,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.5</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6548,14 +6553,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45044</v>
+        <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6568,7 +6573,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6605,14 +6610,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45197</v>
+        <v>45078</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6625,7 +6630,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6662,14 +6667,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6682,7 +6687,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6719,14 +6724,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>45653</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6739,7 +6744,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6776,14 +6781,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6796,7 +6801,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6838,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6853,7 +6858,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6890,14 +6895,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6910,7 +6915,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6952,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45142</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6967,7 +6972,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7004,14 +7009,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7024,7 +7029,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7061,14 +7066,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45581</v>
+        <v>44586</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7081,7 +7086,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7118,14 +7123,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45610</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7138,7 +7143,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7175,14 +7180,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45653</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7195,7 +7200,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>11.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7232,14 +7237,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45534</v>
+        <v>45303</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7252,7 +7257,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7289,14 +7294,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7309,7 +7314,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7346,14 +7351,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45789</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7366,7 +7371,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7403,14 +7408,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45369</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7423,7 +7428,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7460,14 +7465,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45968</v>
+        <v>44949</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7480,7 +7485,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7517,14 +7522,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45502</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7537,7 +7542,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7574,14 +7579,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45078</v>
+        <v>45142</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7594,7 +7599,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7631,14 +7636,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45671</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7651,7 +7656,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7688,14 +7693,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45973</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7708,7 +7713,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7745,14 +7750,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45973</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7765,7 +7770,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7802,14 +7807,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>45603</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7822,7 +7827,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7859,14 +7864,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>45796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7879,7 +7884,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>10.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7916,14 +7921,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45229</v>
+        <v>45910</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7936,7 +7941,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7973,14 +7978,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7993,7 +7998,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8030,14 +8035,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45425</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8049,13 +8054,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>13.9</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8092,14 +8092,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8149,14 +8149,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45671</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8168,8 +8168,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8206,14 +8211,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8226,7 +8231,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>15.3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8263,14 +8268,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8283,7 +8288,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8320,14 +8325,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45751</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8340,7 +8345,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8377,14 +8382,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>45805</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8397,7 +8402,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>9.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8434,14 +8439,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>45665</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8454,7 +8459,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8491,14 +8496,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45068</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8511,7 +8516,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8548,14 +8553,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8568,7 +8573,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8605,14 +8610,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45813</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8625,7 +8630,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8662,14 +8667,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8682,7 +8687,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8719,14 +8724,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45229</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8739,7 +8744,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8776,14 +8781,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44957</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8796,7 +8801,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8833,14 +8838,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8853,7 +8858,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>17.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8890,14 +8895,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8910,7 +8915,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>11.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8947,14 +8952,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>45642.6925</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8967,7 +8972,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9004,14 +9009,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44908</v>
+        <v>45191</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9024,7 +9029,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>14.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9061,14 +9066,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9081,7 +9086,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9118,14 +9123,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9138,7 +9143,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9175,14 +9180,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9195,7 +9200,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9232,14 +9237,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44813</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9252,7 +9257,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9289,14 +9294,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9309,7 +9314,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9346,14 +9351,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>44817</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9366,7 +9371,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9403,14 +9408,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9423,7 +9428,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9460,14 +9465,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45999</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9480,7 +9485,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9517,14 +9522,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9537,7 +9542,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9574,14 +9579,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45642.6925</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9594,7 +9599,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9631,14 +9636,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44750</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9650,13 +9655,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9693,14 +9693,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44536</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9750,14 +9750,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9807,14 +9807,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45603</v>
+        <v>45968</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9864,14 +9864,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9921,14 +9921,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9978,14 +9978,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10035,14 +10035,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45973</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10092,14 +10092,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46007</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10149,14 +10149,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10206,14 +10206,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46007</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>10.2</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10263,14 +10263,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>45973</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10320,14 +10320,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>15.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10377,14 +10377,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44307</v>
+        <v>45671</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10434,14 +10434,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44482</v>
+        <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10491,14 +10491,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10548,14 +10548,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46008</v>
+        <v>45261</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10605,14 +10605,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46008</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10662,14 +10662,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46008</v>
+        <v>45520</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10719,14 +10719,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46008</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10776,14 +10776,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46008</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10833,14 +10833,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45671</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10890,14 +10890,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46009</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10947,14 +10947,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46009</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11004,14 +11004,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46009</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11061,14 +11061,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46009</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11118,14 +11118,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46009</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11175,14 +11175,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46009</v>
+        <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11232,14 +11232,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46009</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11289,14 +11289,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46009</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11346,14 +11346,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44817</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11403,14 +11403,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11460,14 +11460,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45740</v>
+        <v>45999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11517,14 +11517,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44379</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11574,14 +11574,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45173</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11631,14 +11631,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45173</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11688,14 +11688,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>44902</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11745,14 +11745,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11802,14 +11802,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>12.1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11859,14 +11859,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10074-2026</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46073.64571759259</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11916,14 +11916,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45415</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11973,14 +11973,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45191</v>
+        <v>46007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>14.9</v>
+        <v>4.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12030,14 +12030,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12087,14 +12087,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45217</v>
+        <v>46007</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.9</v>
+        <v>10.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12144,14 +12144,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45129</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12201,14 +12201,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45590</v>
+        <v>46008</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12258,14 +12258,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44586</v>
+        <v>46008</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12315,14 +12315,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44949</v>
+        <v>46008</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12372,14 +12372,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45103</v>
+        <v>46008</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12429,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45229</v>
+        <v>46008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12486,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45303</v>
+        <v>46009</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12543,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45180</v>
+        <v>46009</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12600,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45355</v>
+        <v>46009</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>27.1</v>
+        <v>5.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12657,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45103</v>
+        <v>46009</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12714,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>46009</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12771,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>46009</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>11.1</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12828,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44902</v>
+        <v>46009</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12885,14 +12885,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>46009</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>11.7</v>
+        <v>8.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12942,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 10074-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44907</v>
+        <v>46073.64571759259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44369</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45671</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,14 +934,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 59847-2024</t>
+          <t>A 63800-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45639</v>
+        <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -988,123 +988,123 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Trana</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 59847-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Ögonpyrola</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 59847-2024 artfynd.xlsx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 59847-2024 karta.png", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 59847-2024 FSC-klagomål.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 59847-2024 FSC-klagomål mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 59847-2024 tillsynsbegäran.docx", "A 59847-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 59847-2024 tillsynsbegäran mail.docx", "A 59847-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63800-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45278.42076388889</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HAPARANDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Trana</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/artfynd/A 63800-2023 artfynd.xlsx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/kartor/A 63800-2023 karta.png", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomål/A 63800-2023 FSC-klagomål.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/klagomålsmail/A 63800-2023 FSC-klagomål mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsyn/A 63800-2023 tillsynsbegäran.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/tillsynsmail/A 63800-2023 tillsynsbegäran mail.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2583/fåglar/A 63800-2023 prioriterade fågelarter.docx", "A 63800-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28542-2022</t>
+          <t>A 49284-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44748</v>
+        <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1222,14 +1222,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49284-2022</t>
+          <t>A 28542-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44861.45222222222</v>
+        <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 64085-2021</t>
+          <t>A 1052-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44509</v>
+        <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1792,14 +1792,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64088-2021</t>
+          <t>A 21748-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44509</v>
+        <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1849,14 +1849,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1052-2022</t>
+          <t>A 64085-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44571.69283564815</v>
+        <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49245-2022</t>
+          <t>A 64088-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44861</v>
+        <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1963,14 +1963,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21748-2021</t>
+          <t>A 17650-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44322.55153935185</v>
+        <v>44300</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2020,14 +2020,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30004-2022</t>
+          <t>A 21023-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44756.92539351852</v>
+        <v>44319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2077,14 +2077,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52391-2021</t>
+          <t>A 34183-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44465.91761574074</v>
+        <v>44379.49668981481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17650-2021</t>
+          <t>A 49245-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44300</v>
+        <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2191,14 +2191,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21023-2021</t>
+          <t>A 30004-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44319</v>
+        <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2248,14 +2248,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 34183-2021</t>
+          <t>A 52391-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44379.49668981481</v>
+        <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2362,14 +2362,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60754-2021</t>
+          <t>A 54632-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44496.92081018518</v>
+        <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2419,14 +2419,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54632-2022</t>
+          <t>A 30003-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44883.39190972222</v>
+        <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30003-2022</t>
+          <t>A 60754-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44756.92534722222</v>
+        <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2647,14 +2647,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47364-2024</t>
+          <t>A 9748-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45587.44475694445</v>
+        <v>45716.45487268519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5498-2023</t>
+          <t>A 41134-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44957</v>
+        <v>45173</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46296-2024</t>
+          <t>A 41135-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45581</v>
+        <v>45173</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52000-2021</t>
+          <t>A 16036-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44463.33065972223</v>
+        <v>45405.72387731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9748-2025</t>
+          <t>A 14680-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45716.45487268519</v>
+        <v>44280.43743055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2932,14 +2932,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41134-2023</t>
+          <t>A 58379-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45173</v>
+        <v>44901.63513888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>12.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41135-2023</t>
+          <t>A 31238-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45173</v>
+        <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9488-2024</t>
+          <t>A 25160-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45359.58478009259</v>
+        <v>45462</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23484-2023</t>
+          <t>A 25164-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45076.66361111111</v>
+        <v>45462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16036-2024</t>
+          <t>A 31104-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45405.72387731481</v>
+        <v>45502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3217,14 +3217,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31236-2023</t>
+          <t>A 52006-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45103</v>
+        <v>44872.92953703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59686-2023</t>
+          <t>A 58953-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45256.40148148148</v>
+        <v>45636.56960648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3331,14 +3331,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43003-2023</t>
+          <t>A 49848-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45180</v>
+        <v>45597.46230324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3388,14 +3388,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14680-2021</t>
+          <t>A 48383-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44280.43743055555</v>
+        <v>45590</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3445,14 +3445,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8651-2025</t>
+          <t>A 26269-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45712.37207175926</v>
+        <v>45805</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14215-2025</t>
+          <t>A 21698-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45740</v>
+        <v>45442.46135416667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.2</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3559,14 +3559,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58379-2022</t>
+          <t>A 21979-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44901.63513888889</v>
+        <v>45068</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.1</v>
+        <v>8.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3616,14 +3616,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60217-2024</t>
+          <t>A 27593-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45642.68560185185</v>
+        <v>45813</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3673,14 +3673,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31238-2023</t>
+          <t>A 40100-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45103</v>
+        <v>45894.48466435185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3730,14 +3730,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18652-2024</t>
+          <t>A 40104-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45425</v>
+        <v>45894.4883449074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3749,13 +3749,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>13.9</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3792,14 +3787,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 70336-2021</t>
+          <t>A 47364-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44536</v>
+        <v>45587.44475694445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3812,7 +3807,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3849,14 +3844,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39893-2024</t>
+          <t>A 40093-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45553.47987268519</v>
+        <v>45894.47996527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3869,7 +3864,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.7</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3906,14 +3901,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6806-2025</t>
+          <t>A 46296-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45700.68622685185</v>
+        <v>45581</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3926,7 +3921,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3963,14 +3958,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46301-2024</t>
+          <t>A 29319-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45581</v>
+        <v>45824.47469907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3983,7 +3978,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>17.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4020,14 +4015,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16030-2024</t>
+          <t>A 9488-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45405.71074074074</v>
+        <v>45359.58478009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4040,7 +4035,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4077,14 +4072,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16035-2024</t>
+          <t>A 41946-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45405.71791666667</v>
+        <v>45903.4487037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4097,7 +4092,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4134,14 +4129,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25160-2024</t>
+          <t>A 41945-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45462</v>
+        <v>45903.44864583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4154,7 +4149,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4191,14 +4186,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25164-2024</t>
+          <t>A 43003-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45462</v>
+        <v>45180</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4211,7 +4206,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4248,14 +4243,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57254-2021</t>
+          <t>A 32033-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44482</v>
+        <v>45835.42211805555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4268,7 +4263,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4305,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61068-2024</t>
+          <t>A 32039-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645.50035879629</v>
+        <v>45835.42732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4325,7 +4320,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4362,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53290-2023</t>
+          <t>A 8651-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45229</v>
+        <v>45712.37207175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4382,7 +4377,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4419,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19362-2021</t>
+          <t>A 14215-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44307</v>
+        <v>45740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4434,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4471,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49907-2024</t>
+          <t>A 43215-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45597.55295138889</v>
+        <v>45910</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4491,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31104-2024</t>
+          <t>A 33507-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45502</v>
+        <v>45841.51340277777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30141-2023</t>
+          <t>A 46301-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45099</v>
+        <v>45581</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4605,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29159-2022</t>
+          <t>A 57254-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44750</v>
+        <v>44482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4666,13 +4661,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4709,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52735-2024</t>
+          <t>A 61068-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45610</v>
+        <v>45645.50035879629</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4719,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4766,14 +4756,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 277-2023</t>
+          <t>A 29159-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44928.92290509259</v>
+        <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4785,8 +4775,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4823,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52006-2022</t>
+          <t>A 45356-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44872.92953703704</v>
+        <v>45922.36626157408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4838,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4880,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58953-2024</t>
+          <t>A 45362-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45636.56960648148</v>
+        <v>45922.37399305555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4895,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4937,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49848-2024</t>
+          <t>A 45358-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45597.46230324074</v>
+        <v>45922.36961805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4994,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48383-2024</t>
+          <t>A 36767-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45590</v>
+        <v>45873.58252314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5051,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17564-2024</t>
+          <t>A 36766-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45415</v>
+        <v>45873.5799537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5066,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5108,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52192-2023</t>
+          <t>A 36773-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45217</v>
+        <v>45873.58949074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5165,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4317-2025</t>
+          <t>A 36775-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45685.70517361111</v>
+        <v>45873.5925462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5222,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4323-2025</t>
+          <t>A 52192-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45685.71274305556</v>
+        <v>45217</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5237,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.1</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5279,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21698-2024</t>
+          <t>A 4317-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45442.46135416667</v>
+        <v>45685.70517361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5336,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34512-2021</t>
+          <t>A 4323-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44379</v>
+        <v>45685.71274305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>11.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5393,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46301-2023</t>
+          <t>A 34512-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45197</v>
+        <v>44379</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5450,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47240-2024</t>
+          <t>A 48599-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45586.69385416667</v>
+        <v>45936.46731481481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5507,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31067-2024</t>
+          <t>A 46301-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45502</v>
+        <v>45197</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5564,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11285-2022</t>
+          <t>A 31067-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44629.92825231481</v>
+        <v>45502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5579,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>13.3</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5621,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 18855-2023</t>
+          <t>A 11285-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45044</v>
+        <v>44629.92825231481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5641,7 +5636,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>13.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5678,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33439-2023</t>
+          <t>A 18855-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45129</v>
+        <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5698,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5735,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36124-2024</t>
+          <t>A 50085-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45534</v>
+        <v>45943.47648148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5755,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5792,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8836-2024</t>
+          <t>A 16631-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45355</v>
+        <v>45751</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5812,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>27.1</v>
+        <v>10.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5849,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20727-2025</t>
+          <t>A 50714-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45776</v>
+        <v>45946.34521990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5869,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5906,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56024-2022</t>
+          <t>A 50257-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44889.53895833333</v>
+        <v>44458.89255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5926,7 +5921,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5963,14 +5958,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58950-2024</t>
+          <t>A 50450-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45636.55809027778</v>
+        <v>45945.31181712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5983,7 +5978,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>18.6</v>
+        <v>7.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6020,14 +6015,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16631-2025</t>
+          <t>A 50785-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45751</v>
+        <v>45946.46940972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6040,7 +6035,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.8</v>
+        <v>8.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6077,14 +6072,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21534-2025</t>
+          <t>A 38510-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45782.6568287037</v>
+        <v>44813</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6096,13 +6091,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6139,14 +6129,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21547-2025</t>
+          <t>A 50793-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45782.6719212963</v>
+        <v>45946.47498842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6158,13 +6148,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6201,14 +6186,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21577-2025</t>
+          <t>A 49904-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45782</v>
+        <v>45597.54983796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6220,13 +6205,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6263,14 +6243,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50257-2021</t>
+          <t>A 63850-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44458.89255787037</v>
+        <v>45278.48112268518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6283,7 +6263,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6300,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38510-2022</t>
+          <t>A 52322-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44813</v>
+        <v>45953.66450231482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6320,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6357,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2477-2022</t>
+          <t>A 52331-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44579.64950231482</v>
+        <v>45953.67825231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6397,7 +6377,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6414,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21874-2025</t>
+          <t>A 42167-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45784.389375</v>
+        <v>45562.46512731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6453,13 +6433,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>11.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6496,14 +6471,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58981-2024</t>
+          <t>A 1446-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45636.61908564815</v>
+        <v>45303</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6491,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6553,14 +6528,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31242-2023</t>
+          <t>A 10735-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45103</v>
+        <v>45369</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6548,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6610,14 +6585,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23982-2023</t>
+          <t>A 3498-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45078</v>
+        <v>44949</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6605,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6667,14 +6642,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49904-2024</t>
+          <t>A 63219-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45597.54983796296</v>
+        <v>44508.31758101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6687,7 +6662,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6724,14 +6699,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61925-2024</t>
+          <t>A 34980-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45653</v>
+        <v>45142</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6744,7 +6719,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6781,14 +6756,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63850-2023</t>
+          <t>A 1870-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45278.48112268518</v>
+        <v>45671</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6776,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6838,14 +6813,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49852-2024</t>
+          <t>A 55192-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45597.46708333334</v>
+        <v>45968</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6833,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6895,14 +6870,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40100-2025</t>
+          <t>A 54856-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45894.48466435185</v>
+        <v>45966.75131944445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6915,7 +6890,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6952,14 +6927,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40104-2025</t>
+          <t>A 51376-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45894.4883449074</v>
+        <v>45603</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6972,7 +6947,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7009,14 +6984,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40093-2025</t>
+          <t>A 61161-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45894.47996527778</v>
+        <v>44908</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7029,7 +7004,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7066,14 +7041,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3631-2022</t>
+          <t>A 5498-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44586</v>
+        <v>44957</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7061,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7123,14 +7098,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9745-2025</t>
+          <t>A 55861-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45716.44847222222</v>
+        <v>45973</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7118,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7180,14 +7155,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42167-2024</t>
+          <t>A 56366-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45562.46512731481</v>
+        <v>45974.67400462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7200,7 +7175,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7237,14 +7212,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1446-2024</t>
+          <t>A 56364-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45303</v>
+        <v>45974.67253472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7257,7 +7232,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7294,14 +7269,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 22703-2025</t>
+          <t>A 56356-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45789.55039351852</v>
+        <v>45974.66077546297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7314,7 +7289,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7351,14 +7326,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22697-2025</t>
+          <t>A 55875-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45789</v>
+        <v>45973</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7371,7 +7346,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7408,14 +7383,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10735-2024</t>
+          <t>A 49907-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45369</v>
+        <v>45597.55295138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7428,7 +7403,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7465,14 +7440,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3498-2023</t>
+          <t>A 56374-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44949</v>
+        <v>45974.68696759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7485,7 +7460,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.6</v>
+        <v>15.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7522,14 +7497,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63219-2021</t>
+          <t>A 17564-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44508.31758101852</v>
+        <v>45415</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7542,7 +7517,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7579,14 +7554,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34980-2023</t>
+          <t>A 57873-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45142</v>
+        <v>45981.65486111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7599,7 +7574,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7636,14 +7611,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1870-2025</t>
+          <t>A 58710-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45671</v>
+        <v>45986.60693287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7656,7 +7631,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7693,14 +7668,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41946-2025</t>
+          <t>A 33439-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45903.4487037037</v>
+        <v>45129</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7713,7 +7688,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7750,14 +7725,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41945-2025</t>
+          <t>A 36124-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45903.44864583333</v>
+        <v>45534</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7770,7 +7745,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7807,14 +7782,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51376-2024</t>
+          <t>A 8836-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45603</v>
+        <v>45355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7827,7 +7802,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>27.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7864,14 +7839,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24120-2025</t>
+          <t>A 58624-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45796</v>
+        <v>45986.4734837963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7884,7 +7859,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7921,14 +7896,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43215-2025</t>
+          <t>A 58950-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45910</v>
+        <v>45636.55809027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7941,7 +7916,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>18.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7978,14 +7953,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61161-2022</t>
+          <t>A 58943-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44908</v>
+        <v>45987.57859953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7998,7 +7973,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8035,14 +8010,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49007-2023</t>
+          <t>A 58851-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45209.68086805556</v>
+        <v>45987.4022800926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8055,7 +8030,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8092,14 +8067,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45575-2024</t>
+          <t>A 2477-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45579</v>
+        <v>44579.64950231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8112,7 +8087,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8149,14 +8124,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25124-2025</t>
+          <t>A 59478-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45800.37550925926</v>
+        <v>45989.58756944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8168,13 +8143,8 @@
           <t>HAPARANDA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8211,14 +8181,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45356-2025</t>
+          <t>A 58981-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45922.36626157408</v>
+        <v>45636.61908564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8231,7 +8201,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8268,14 +8238,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45362-2025</t>
+          <t>A 60262-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45922.37399305555</v>
+        <v>45994.61371527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8288,7 +8258,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8325,14 +8295,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45358-2025</t>
+          <t>A 31242-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45922.36961805556</v>
+        <v>45103</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8345,7 +8315,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8382,14 +8352,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26269-2025</t>
+          <t>A 60368-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45805</v>
+        <v>45995.34100694444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8402,7 +8372,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8439,14 +8409,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1071-2025</t>
+          <t>A 23982-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45665</v>
+        <v>45078</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8459,7 +8429,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8496,14 +8466,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 21979-2023</t>
+          <t>A 60373-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45068</v>
+        <v>45995.34748842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8516,7 +8486,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8553,14 +8523,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61075-2024</t>
+          <t>A 61925-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45645.50744212963</v>
+        <v>45653</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8573,7 +8543,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8610,14 +8580,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27593-2025</t>
+          <t>A 61108-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45813</v>
+        <v>45999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8630,7 +8600,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8667,14 +8637,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42547-2023</t>
+          <t>A 49852-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45181.37510416667</v>
+        <v>45597.46708333334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8687,7 +8657,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8724,14 +8694,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53257-2023</t>
+          <t>A 61607-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45229</v>
+        <v>46002.37674768519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8744,7 +8714,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8781,14 +8751,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48599-2025</t>
+          <t>A 61626-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45936.46731481481</v>
+        <v>46002.40135416666</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8801,7 +8771,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8838,14 +8808,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 29319-2025</t>
+          <t>A 3631-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45824.47469907408</v>
+        <v>44586</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8858,7 +8828,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>17.8</v>
+        <v>7.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8895,14 +8865,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60214-2024</t>
+          <t>A 9745-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45642.68184027778</v>
+        <v>45716.44847222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8915,7 +8885,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>11.7</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8952,14 +8922,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60219-2024</t>
+          <t>A 61609-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45642.6925</v>
+        <v>46002.37826388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8972,7 +8942,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9009,14 +8979,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46305-2023</t>
+          <t>A 61623-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45191</v>
+        <v>46002.39738425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9029,7 +8999,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.9</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9066,14 +9036,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48630-2023</t>
+          <t>A 62326-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45208.57646990741</v>
+        <v>46006.71821759259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9086,7 +9056,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9123,14 +9093,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50085-2025</t>
+          <t>A 1071-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45943.47648148148</v>
+        <v>45665</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9143,7 +9113,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9180,14 +9150,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 50714-2025</t>
+          <t>A 61075-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45946.34521990741</v>
+        <v>45645.50744212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9200,7 +9170,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9237,14 +9207,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 50450-2025</t>
+          <t>A 62387-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45945.31181712963</v>
+        <v>46007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9257,7 +9227,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9294,14 +9264,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50785-2025</t>
+          <t>A 62543-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45946.46940972222</v>
+        <v>46007.65609953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9314,7 +9284,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9351,14 +9321,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 41009-2022</t>
+          <t>A 62384-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44817</v>
+        <v>46007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9371,7 +9341,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.9</v>
+        <v>10.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9408,14 +9378,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 50793-2025</t>
+          <t>A 62785-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45946.47498842593</v>
+        <v>46008.61618055555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9465,14 +9435,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32033-2025</t>
+          <t>A 42547-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45835.42211805555</v>
+        <v>45181.37510416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9485,7 +9455,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9522,14 +9492,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32039-2025</t>
+          <t>A 53257-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45835.42732638889</v>
+        <v>45229</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9542,7 +9512,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9579,14 +9549,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52322-2025</t>
+          <t>A 62896-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45953.66450231482</v>
+        <v>46008</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9599,7 +9569,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9636,14 +9606,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52331-2025</t>
+          <t>A 62897-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45953.67825231481</v>
+        <v>46008</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9656,7 +9626,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9693,14 +9663,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33507-2025</t>
+          <t>A 62869-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45841.51340277777</v>
+        <v>46008</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9713,7 +9683,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9750,14 +9720,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 64139-2023</t>
+          <t>A 62871-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45279.56569444444</v>
+        <v>46008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9770,7 +9740,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9807,14 +9777,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55192-2025</t>
+          <t>A 62898-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9827,7 +9797,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9864,14 +9834,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54856-2025</t>
+          <t>A 60214-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45966.75131944445</v>
+        <v>45642.68184027778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9884,7 +9854,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9921,14 +9891,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9738-2025</t>
+          <t>A 60219-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45716.44008101852</v>
+        <v>45642.6925</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9941,7 +9911,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9978,14 +9948,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9739-2025</t>
+          <t>A 46305-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45716.44365740741</v>
+        <v>45191</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9998,7 +9968,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>14.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10035,14 +10005,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55861-2025</t>
+          <t>A 48630-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45973</v>
+        <v>45208.57646990741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10055,7 +10025,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10092,14 +10062,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56366-2025</t>
+          <t>A 41009-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45974.67400462963</v>
+        <v>44817</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10112,7 +10082,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10149,14 +10119,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56364-2025</t>
+          <t>A 63367-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45974.67253472222</v>
+        <v>46009</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10169,7 +10139,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10206,14 +10176,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56356-2025</t>
+          <t>A 63371-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45974.66077546297</v>
+        <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10226,7 +10196,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10263,14 +10233,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55875-2025</t>
+          <t>A 63366-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45973</v>
+        <v>46009</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10283,7 +10253,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10320,14 +10290,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 56374-2025</t>
+          <t>A 63372-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45974.68696759259</v>
+        <v>46009</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10340,7 +10310,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>15.3</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10377,14 +10347,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1849-2025</t>
+          <t>A 63373-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45671</v>
+        <v>46009</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10397,7 +10367,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10434,14 +10404,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60928-2022</t>
+          <t>A 63368-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44907</v>
+        <v>46009</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10454,7 +10424,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10491,14 +10461,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 10465-2025</t>
+          <t>A 63370-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45720.82733796296</v>
+        <v>46009</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10511,7 +10481,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10548,14 +10518,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 61570-2023</t>
+          <t>A 63369-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45261</v>
+        <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10568,7 +10538,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10605,14 +10575,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57873-2025</t>
+          <t>A 64139-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45981.65486111111</v>
+        <v>45279.56569444444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10625,7 +10595,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10662,14 +10632,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33728-2024</t>
+          <t>A 9738-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45520</v>
+        <v>45716.44008101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10682,7 +10652,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10719,14 +10689,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36767-2025</t>
+          <t>A 9739-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45873.58252314815</v>
+        <v>45716.44365740741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10739,7 +10709,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10776,14 +10746,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58710-2025</t>
+          <t>A 10074-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45986.60693287037</v>
+        <v>46073.64571759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10796,7 +10766,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.9</v>
+        <v>4.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10833,14 +10803,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58624-2025</t>
+          <t>A 1849-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45986.4734837963</v>
+        <v>45671</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10853,7 +10823,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10890,14 +10860,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36766-2025</t>
+          <t>A 60928-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45873.5799537037</v>
+        <v>44907</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10910,7 +10880,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10947,14 +10917,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 36773-2025</t>
+          <t>A 10465-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45873.58949074074</v>
+        <v>45720.82733796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10967,7 +10937,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11004,14 +10974,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36775-2025</t>
+          <t>A 61570-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45873.5925462963</v>
+        <v>45261</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11024,7 +10994,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11061,14 +11031,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58943-2025</t>
+          <t>A 33728-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45987.57859953704</v>
+        <v>45520</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11081,7 +11051,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11118,14 +11088,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58851-2025</t>
+          <t>A 19365-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45987.4022800926</v>
+        <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11138,7 +11108,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11175,14 +11145,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19365-2021</t>
+          <t>A 25159-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44307</v>
+        <v>45462.52538194445</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11195,7 +11165,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11232,14 +11202,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59478-2025</t>
+          <t>A 60064-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45989.58756944445</v>
+        <v>44902</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11252,7 +11222,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11289,14 +11259,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60262-2025</t>
+          <t>A 49902-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45994.61371527778</v>
+        <v>45597.54476851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11309,7 +11279,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11346,14 +11316,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 60368-2025</t>
+          <t>A 52000-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45995.34100694444</v>
+        <v>44463.33065972223</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11366,7 +11336,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11403,14 +11373,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60373-2025</t>
+          <t>A 23484-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45995.34748842593</v>
+        <v>45076.66361111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11423,7 +11393,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11460,14 +11430,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 61108-2025</t>
+          <t>A 31236-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45999</v>
+        <v>45103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11480,7 +11450,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11517,14 +11487,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 25159-2024</t>
+          <t>A 59686-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45462.52538194445</v>
+        <v>45256.40148148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11537,7 +11507,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11574,14 +11544,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61607-2025</t>
+          <t>A 60217-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46002.37674768519</v>
+        <v>45642.68560185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11594,7 +11564,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11631,14 +11601,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61626-2025</t>
+          <t>A 18652-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46002.40135416666</v>
+        <v>45425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11650,8 +11620,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>9</v>
+        <v>13.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11688,14 +11663,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60064-2022</t>
+          <t>A 70336-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44902</v>
+        <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11708,7 +11683,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11745,14 +11720,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61609-2025</t>
+          <t>A 39893-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46002.37826388889</v>
+        <v>45553.47987268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11765,7 +11740,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>11.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11802,14 +11777,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61623-2025</t>
+          <t>A 6806-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46002.39738425926</v>
+        <v>45700.68622685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11822,7 +11797,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11859,14 +11834,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49902-2024</t>
+          <t>A 16030-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45597.54476851852</v>
+        <v>45405.71074074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11879,7 +11854,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11916,14 +11891,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62326-2025</t>
+          <t>A 16035-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46006.71821759259</v>
+        <v>45405.71791666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11936,7 +11911,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11973,14 +11948,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62387-2025</t>
+          <t>A 53290-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46007</v>
+        <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11993,7 +11968,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12030,14 +12005,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62543-2025</t>
+          <t>A 19362-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46007.65609953704</v>
+        <v>44307</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12050,7 +12025,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12087,14 +12062,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62384-2025</t>
+          <t>A 30141-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46007</v>
+        <v>45099</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12107,7 +12082,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>10.2</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12144,14 +12119,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62785-2025</t>
+          <t>A 52735-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46008.61618055555</v>
+        <v>45610</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12164,7 +12139,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12201,14 +12176,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62896-2025</t>
+          <t>A 277-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46008</v>
+        <v>44928.92290509259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12221,7 +12196,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12258,14 +12233,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62897-2025</t>
+          <t>A 47240-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46008</v>
+        <v>45586.69385416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12315,14 +12290,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62869-2025</t>
+          <t>A 20727-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46008</v>
+        <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12335,7 +12310,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12372,14 +12347,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62871-2025</t>
+          <t>A 56024-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46008</v>
+        <v>44889.53895833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12392,7 +12367,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12429,14 +12404,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 62898-2025</t>
+          <t>A 21534-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46008</v>
+        <v>45782.6568287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12448,8 +12423,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12486,14 +12466,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 63367-2025</t>
+          <t>A 21547-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46009</v>
+        <v>45782.6719212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12505,8 +12485,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12543,14 +12528,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 63371-2025</t>
+          <t>A 21577-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46009</v>
+        <v>45782</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12562,8 +12547,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12600,14 +12590,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63366-2025</t>
+          <t>A 21874-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46009</v>
+        <v>45784.389375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12619,8 +12609,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12657,14 +12652,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63372-2025</t>
+          <t>A 22703-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46009</v>
+        <v>45789.55039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12677,7 +12672,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12714,14 +12709,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63373-2025</t>
+          <t>A 22697-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46009</v>
+        <v>45789</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12734,7 +12729,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12771,14 +12766,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63368-2025</t>
+          <t>A 24120-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46009</v>
+        <v>45796</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12791,7 +12786,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>10.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12828,14 +12823,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 63370-2025</t>
+          <t>A 49007-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46009</v>
+        <v>45209.68086805556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12848,7 +12843,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12885,14 +12880,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63369-2025</t>
+          <t>A 45575-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46009</v>
+        <v>45579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12905,7 +12900,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12942,14 +12937,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10074-2026</t>
+          <t>A 25124-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46073.64571759259</v>
+        <v>45800.37550925926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12961,8 +12956,13 @@
           <t>HAPARANDA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -575,7 +575,7 @@
         <v>45173</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44369</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44884</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45671</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45278.42076388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>45639</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44350</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44861.45222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44748</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44271</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44337.45984953704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44536</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44883.4337962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44571.69283564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44322.55153935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44300</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44379.49668981481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44756.92539351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44465.91761574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44886.50350694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44883.39190972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44756.92534722222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44854.45994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44496.92081018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44540.46146990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>45716.45487268519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45173</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45173</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>45405.72387731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44280.43743055555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44901.63513888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>45462</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44872.92953703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45636.56960648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45597.46230324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45590</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>45805</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45442.46135416667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>45068</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45813</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45894.48466435185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45894.4883449074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45587.44475694445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45894.47996527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45581</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45824.47469907408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45359.58478009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>45903.4487037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45903.44864583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45180</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45835.42211805555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45835.42732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>45712.37207175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>45740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45910</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45841.51340277777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45581</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45645.50035879629</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45922.36626157408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45922.37399305555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45922.36961805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45873.58252314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45873.5799537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45873.58949074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45873.5925462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45217</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45685.70517361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45685.71274305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44379</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45936.46731481481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45197</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44629.92825231481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45943.47648148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45751</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45946.34521990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>44458.89255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45945.31181712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45946.46940972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44813</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45946.47498842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45597.54983796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45278.48112268518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45953.66450231482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45953.67825231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45562.46512731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45303</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45369</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44949</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44508.31758101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45142</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45671</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45968</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45966.75131944445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45603</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44908</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44957</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45973</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45974.67400462963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45974.67253472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>45974.66077546297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>45973</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45597.55295138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45974.68696759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45415</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45981.65486111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45986.60693287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45129</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45534</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45986.4734837963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45636.55809027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45987.57859953704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45987.4022800926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44579.64950231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45989.58756944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45636.61908564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45994.61371527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45103</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45995.34100694444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45078</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45995.34748842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45653</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45597.46708333334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>46002.37674768519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>46002.40135416666</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44586</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45716.44847222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>46002.37826388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>46002.39738425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>46006.71821759259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45665</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45645.50744212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>46007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>46007.65609953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>46007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>46008.61618055555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45181.37510416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45229</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>46008</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>46008</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>46008</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>46008</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>46008</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>45642.68184027778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45642.6925</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45191</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45208.57646990741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44817</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>46009</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>46009</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>46009</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>46009</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>46009</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>46009</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>46009</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45279.56569444444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45716.44008101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45716.44365740741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>46073.64571759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>45671</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44907</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45720.82733796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45261</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>45520</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>45462.52538194445</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44902</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45597.54476851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44463.33065972223</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>45076.66361111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45256.40148148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>45642.68560185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45553.47987268519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45700.68622685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45405.71074074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>45405.71791666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44307</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45099</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>45610</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44928.92290509259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>45586.69385416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44889.53895833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45782.6568287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45782.6719212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45782</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45784.389375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45789.55039351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45789</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45796</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45209.68086805556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45800.37550925926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
